--- a/analysis/Verruco Metadata.xlsx
+++ b/analysis/Verruco Metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="1580" yWindow="0" windowWidth="24020" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12510" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12878" uniqueCount="435">
   <si>
     <t>Sample</t>
   </si>
@@ -1414,12 +1414,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1431,7 +1437,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2423">
+  <cellStyleXfs count="2429">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3855,8 +3861,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3925,8 +3937,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1750" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="1750" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2423">
+  <cellStyles count="2429">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5137,6 +5160,9 @@
     <cellStyle name="Followed Hyperlink" xfId="2418" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2420" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2428" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6347,6 +6373,9 @@
     <cellStyle name="Hyperlink" xfId="2417" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2419" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2427" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1" xfId="1749"/>
     <cellStyle name="Normal_Sonde" xfId="1750"/>
@@ -6681,8 +6710,8 @@
   <dimension ref="A1:BD361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58:XFD59"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6717,8 +6746,9 @@
     <col min="28" max="28" width="18.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="18.83203125" style="4" customWidth="1"/>
     <col min="30" max="30" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="52" width="10.83203125" style="4"/>
+    <col min="31" max="31" width="15.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.83203125" style="44"/>
+    <col min="33" max="52" width="10.83203125" style="4"/>
     <col min="53" max="53" width="10.83203125" style="28"/>
     <col min="54" max="56" width="10.83203125" style="10"/>
   </cols>
@@ -6814,10 +6844,10 @@
       <c r="AD1" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AE1" s="40" t="s">
         <v>405</v>
       </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AF1" s="41" t="s">
         <v>414</v>
       </c>
       <c r="AG1" s="23" t="s">
@@ -6984,10 +7014,10 @@
       <c r="AD2" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE2" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AE2" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF2" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG2" s="13" t="s">
@@ -7154,10 +7184,10 @@
       <c r="AD3" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE3" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AE3" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF3" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG3" s="13" t="s">
@@ -7324,10 +7354,10 @@
       <c r="AD4" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE4" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF4" s="13" t="s">
+      <c r="AE4" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF4" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG4" s="13" t="s">
@@ -7494,10 +7524,10 @@
       <c r="AD5" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE5" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF5" s="13" t="s">
+      <c r="AE5" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF5" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG5" s="13" t="s">
@@ -7664,10 +7694,10 @@
       <c r="AD6" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE6" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF6" s="13" t="s">
+      <c r="AE6" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF6" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG6" s="13" t="s">
@@ -7834,10 +7864,10 @@
       <c r="AD7" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE7" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF7" s="13" t="s">
+      <c r="AE7" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF7" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG7" s="13" t="s">
@@ -8004,10 +8034,10 @@
       <c r="AD8" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE8" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF8" s="13" t="s">
+      <c r="AE8" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF8" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG8" s="13" t="s">
@@ -8174,10 +8204,10 @@
       <c r="AD9" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE9" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF9" s="13" t="s">
+      <c r="AE9" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF9" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG9" s="13" t="s">
@@ -8344,10 +8374,10 @@
       <c r="AD10" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE10" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF10" s="13" t="s">
+      <c r="AE10" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF10" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG10" s="13" t="s">
@@ -8514,10 +8544,10 @@
       <c r="AD11" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE11" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF11" s="13" t="s">
+      <c r="AE11" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF11" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG11" s="13" t="s">
@@ -8684,10 +8714,10 @@
       <c r="AD12" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE12" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF12" s="13" t="s">
+      <c r="AE12" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF12" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG12" s="13" t="s">
@@ -8854,10 +8884,10 @@
       <c r="AD13" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE13" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF13" s="13" t="s">
+      <c r="AE13" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF13" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG13" s="13" t="s">
@@ -9024,10 +9054,10 @@
       <c r="AD14" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE14" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF14" s="13" t="s">
+      <c r="AE14" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF14" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG14" s="13" t="s">
@@ -9194,10 +9224,10 @@
       <c r="AD15" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE15" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF15" s="13" t="s">
+      <c r="AE15" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF15" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG15" s="13" t="s">
@@ -9364,10 +9394,10 @@
       <c r="AD16" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE16" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF16" s="13" t="s">
+      <c r="AE16" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF16" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG16" s="13" t="s">
@@ -9534,10 +9564,10 @@
       <c r="AD17" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE17" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF17" s="13" t="s">
+      <c r="AE17" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF17" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG17" s="13" t="s">
@@ -9704,10 +9734,10 @@
       <c r="AD18" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE18" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF18" s="13" t="s">
+      <c r="AE18" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF18" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG18" s="13" t="s">
@@ -9874,10 +9904,10 @@
       <c r="AD19" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE19" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF19" s="13" t="s">
+      <c r="AE19" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF19" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG19" s="13" t="s">
@@ -10044,10 +10074,10 @@
       <c r="AD20" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE20" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF20" s="13" t="s">
+      <c r="AE20" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF20" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG20" s="13" t="s">
@@ -10214,10 +10244,10 @@
       <c r="AD21" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE21" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF21" s="13" t="s">
+      <c r="AE21" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF21" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG21" s="13" t="s">
@@ -10384,10 +10414,10 @@
       <c r="AD22" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE22" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF22" s="13" t="s">
+      <c r="AE22" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF22" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG22" s="13" t="s">
@@ -10554,10 +10584,10 @@
       <c r="AD23" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE23" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF23" s="13" t="s">
+      <c r="AE23" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF23" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG23" s="13" t="s">
@@ -10724,10 +10754,10 @@
       <c r="AD24" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE24" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF24" s="13" t="s">
+      <c r="AE24" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF24" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG24" s="13" t="s">
@@ -10894,10 +10924,10 @@
       <c r="AD25" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE25" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF25" s="13" t="s">
+      <c r="AE25" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF25" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG25" s="13" t="s">
@@ -11064,10 +11094,10 @@
       <c r="AD26" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE26" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF26" s="13" t="s">
+      <c r="AE26" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF26" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG26" s="13" t="s">
@@ -11234,10 +11264,10 @@
       <c r="AD27" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE27" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF27" s="13" t="s">
+      <c r="AE27" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF27" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG27" s="13" t="s">
@@ -11404,10 +11434,10 @@
       <c r="AD28" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE28" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF28" s="13" t="s">
+      <c r="AE28" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF28" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG28" s="13" t="s">
@@ -11574,10 +11604,10 @@
       <c r="AD29" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE29" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF29" s="13" t="s">
+      <c r="AE29" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF29" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG29" s="13" t="s">
@@ -11744,10 +11774,10 @@
       <c r="AD30" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE30" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF30" s="13" t="s">
+      <c r="AE30" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF30" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG30" s="13" t="s">
@@ -11914,10 +11944,10 @@
       <c r="AD31" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE31" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF31" s="13" t="s">
+      <c r="AE31" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF31" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG31" s="13" t="s">
@@ -12084,10 +12114,10 @@
       <c r="AD32" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE32" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF32" s="13" t="s">
+      <c r="AE32" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF32" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG32" s="13" t="s">
@@ -12254,10 +12284,10 @@
       <c r="AD33" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE33" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF33" s="13" t="s">
+      <c r="AE33" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF33" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG33" s="13" t="s">
@@ -12424,10 +12454,10 @@
       <c r="AD34" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE34" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF34" s="13" t="s">
+      <c r="AE34" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF34" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG34" s="13" t="s">
@@ -12594,10 +12624,10 @@
       <c r="AD35" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE35" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF35" s="13" t="s">
+      <c r="AE35" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF35" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG35" s="13" t="s">
@@ -12764,10 +12794,10 @@
       <c r="AD36" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE36" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF36" s="13" t="s">
+      <c r="AE36" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF36" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG36" s="13" t="s">
@@ -12934,10 +12964,10 @@
       <c r="AD37" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE37" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF37" s="13" t="s">
+      <c r="AE37" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF37" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG37" s="13" t="s">
@@ -13104,10 +13134,10 @@
       <c r="AD38" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE38" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF38" s="13" t="s">
+      <c r="AE38" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF38" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG38" s="13" t="s">
@@ -13274,10 +13304,10 @@
       <c r="AD39" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE39" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF39" s="13" t="s">
+      <c r="AE39" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF39" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG39" s="13" t="s">
@@ -13444,10 +13474,10 @@
       <c r="AD40" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE40" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF40" s="13" t="s">
+      <c r="AE40" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF40" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG40" s="13" t="s">
@@ -13614,10 +13644,10 @@
       <c r="AD41" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE41" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF41" s="13" t="s">
+      <c r="AE41" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF41" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG41" s="13" t="s">
@@ -13784,10 +13814,10 @@
       <c r="AD42" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE42" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF42" s="13" t="s">
+      <c r="AE42" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF42" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG42" s="13" t="s">
@@ -13954,10 +13984,10 @@
       <c r="AD43" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE43" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF43" s="13" t="s">
+      <c r="AE43" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF43" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG43" s="13" t="s">
@@ -14124,10 +14154,10 @@
       <c r="AD44" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE44" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF44" s="13" t="s">
+      <c r="AE44" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF44" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG44" s="13" t="s">
@@ -14294,10 +14324,10 @@
       <c r="AD45" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE45" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF45" s="13" t="s">
+      <c r="AE45" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF45" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG45" s="13" t="s">
@@ -14464,10 +14494,10 @@
       <c r="AD46" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE46" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF46" s="13" t="s">
+      <c r="AE46" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF46" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG46" s="13" t="s">
@@ -14634,10 +14664,10 @@
       <c r="AD47" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE47" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF47" s="13" t="s">
+      <c r="AE47" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF47" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG47" s="13" t="s">
@@ -14804,10 +14834,10 @@
       <c r="AD48" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE48" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF48" s="13" t="s">
+      <c r="AE48" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF48" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG48" s="13" t="s">
@@ -14974,10 +15004,10 @@
       <c r="AD49" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE49" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF49" s="13" t="s">
+      <c r="AE49" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF49" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG49" s="13" t="s">
@@ -15144,10 +15174,10 @@
       <c r="AD50" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE50" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF50" s="13" t="s">
+      <c r="AE50" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF50" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG50" s="13" t="s">
@@ -15314,10 +15344,10 @@
       <c r="AD51" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE51" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF51" s="13" t="s">
+      <c r="AE51" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF51" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG51" s="13" t="s">
@@ -15484,10 +15514,10 @@
       <c r="AD52" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE52" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF52" s="13" t="s">
+      <c r="AE52" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF52" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG52" s="13" t="s">
@@ -15654,10 +15684,10 @@
       <c r="AD53" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE53" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF53" s="13" t="s">
+      <c r="AE53" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF53" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG53" s="13" t="s">
@@ -15824,10 +15854,10 @@
       <c r="AD54" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE54" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF54" s="13" t="s">
+      <c r="AE54" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF54" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG54" s="13" t="s">
@@ -15994,10 +16024,10 @@
       <c r="AD55" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE55" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF55" s="13" t="s">
+      <c r="AE55" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF55" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG55" s="13" t="s">
@@ -16164,10 +16194,10 @@
       <c r="AD56" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE56" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF56" s="13" t="s">
+      <c r="AE56" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF56" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG56" s="13" t="s">
@@ -16334,10 +16364,10 @@
       <c r="AD57" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE57" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF57" s="13" t="s">
+      <c r="AE57" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF57" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG57" s="13" t="s">
@@ -16504,10 +16534,10 @@
       <c r="AD58" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE58" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF58" s="13" t="s">
+      <c r="AE58" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF58" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG58" s="13" t="s">
@@ -16674,10 +16704,10 @@
       <c r="AD59" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE59" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF59" s="13" t="s">
+      <c r="AE59" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF59" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG59" s="13" t="s">
@@ -16844,10 +16874,10 @@
       <c r="AD60" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE60" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF60" s="13" t="s">
+      <c r="AE60" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF60" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG60" s="13" t="s">
@@ -17014,10 +17044,10 @@
       <c r="AD61" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE61" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF61" s="13" t="s">
+      <c r="AE61" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF61" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG61" s="13" t="s">
@@ -17184,10 +17214,10 @@
       <c r="AD62" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE62" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF62" s="13" t="s">
+      <c r="AE62" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF62" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG62" s="13" t="s">
@@ -17354,10 +17384,10 @@
       <c r="AD63" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE63" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF63" s="13" t="s">
+      <c r="AE63" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF63" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG63" s="13" t="s">
@@ -17524,10 +17554,10 @@
       <c r="AD64" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE64" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF64" s="13" t="s">
+      <c r="AE64" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF64" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG64" s="13" t="s">
@@ -17694,10 +17724,10 @@
       <c r="AD65" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE65" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF65" s="13" t="s">
+      <c r="AE65" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF65" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG65" s="13" t="s">
@@ -17864,10 +17894,10 @@
       <c r="AD66" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE66" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF66" s="13" t="s">
+      <c r="AE66" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF66" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG66" s="13" t="s">
@@ -18034,10 +18064,10 @@
       <c r="AD67" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE67" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF67" s="13" t="s">
+      <c r="AE67" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF67" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG67" s="13" t="s">
@@ -18204,10 +18234,10 @@
       <c r="AD68" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE68" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF68" s="13" t="s">
+      <c r="AE68" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF68" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG68" s="13" t="s">
@@ -18374,10 +18404,10 @@
       <c r="AD69" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE69" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF69" s="13" t="s">
+      <c r="AE69" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF69" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG69" s="13" t="s">
@@ -18544,10 +18574,10 @@
       <c r="AD70" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE70" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF70" s="13" t="s">
+      <c r="AE70" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF70" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG70" s="13" t="s">
@@ -18714,10 +18744,10 @@
       <c r="AD71" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE71" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF71" s="13" t="s">
+      <c r="AE71" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF71" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG71" s="13" t="s">
@@ -18884,10 +18914,10 @@
       <c r="AD72" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE72" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF72" s="13" t="s">
+      <c r="AE72" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF72" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG72" s="13" t="s">
@@ -19054,10 +19084,10 @@
       <c r="AD73" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE73" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF73" s="13" t="s">
+      <c r="AE73" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF73" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG73" s="13" t="s">
@@ -19224,10 +19254,10 @@
       <c r="AD74" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE74" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF74" s="13" t="s">
+      <c r="AE74" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF74" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG74" s="13" t="s">
@@ -19394,10 +19424,10 @@
       <c r="AD75" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE75" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF75" s="13" t="s">
+      <c r="AE75" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF75" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG75" s="13" t="s">
@@ -19564,10 +19594,10 @@
       <c r="AD76" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE76" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF76" s="13" t="s">
+      <c r="AE76" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF76" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG76" s="13" t="s">
@@ -19734,10 +19764,10 @@
       <c r="AD77" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE77" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF77" s="13" t="s">
+      <c r="AE77" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF77" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG77" s="13" t="s">
@@ -19904,10 +19934,10 @@
       <c r="AD78" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE78" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF78" s="13" t="s">
+      <c r="AE78" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF78" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG78" s="13" t="s">
@@ -20074,10 +20104,10 @@
       <c r="AD79" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE79" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF79" s="19">
+      <c r="AE79" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF79" s="43">
         <v>1356</v>
       </c>
       <c r="AG79" s="36">
@@ -20244,10 +20274,10 @@
       <c r="AD80" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE80" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF80" s="19">
+      <c r="AE80" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF80" s="43">
         <v>1356</v>
       </c>
       <c r="AG80" s="36">
@@ -20414,10 +20444,10 @@
       <c r="AD81" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE81" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF81" s="19">
+      <c r="AE81" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF81" s="43">
         <v>1356</v>
       </c>
       <c r="AG81" s="36">
@@ -20584,10 +20614,10 @@
       <c r="AD82" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE82" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF82" s="19">
+      <c r="AE82" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF82" s="43">
         <v>1356</v>
       </c>
       <c r="AG82" s="36">
@@ -20754,10 +20784,10 @@
       <c r="AD83" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE83" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF83" s="19">
+      <c r="AE83" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF83" s="43">
         <v>1046</v>
       </c>
       <c r="AG83" s="36">
@@ -20924,10 +20954,10 @@
       <c r="AD84" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE84" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF84" s="19">
+      <c r="AE84" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF84" s="43">
         <v>1046</v>
       </c>
       <c r="AG84" s="36">
@@ -21094,10 +21124,10 @@
       <c r="AD85" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE85" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF85" s="19">
+      <c r="AE85" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF85" s="43">
         <v>1046</v>
       </c>
       <c r="AG85" s="36">
@@ -21264,10 +21294,10 @@
       <c r="AD86" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE86" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF86" s="19">
+      <c r="AE86" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF86" s="43">
         <v>1046</v>
       </c>
       <c r="AG86" s="36">
@@ -21434,10 +21464,10 @@
       <c r="AD87" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE87" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF87" s="13" t="s">
+      <c r="AE87" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF87" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG87" s="13" t="s">
@@ -21604,10 +21634,10 @@
       <c r="AD88" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE88" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF88" s="13" t="s">
+      <c r="AE88" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF88" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG88" s="13" t="s">
@@ -21774,10 +21804,10 @@
       <c r="AD89" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE89" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF89" s="19">
+      <c r="AE89" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF89" s="43">
         <v>1503</v>
       </c>
       <c r="AG89" s="36">
@@ -21944,10 +21974,10 @@
       <c r="AD90" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE90" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF90" s="19">
+      <c r="AE90" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF90" s="43">
         <v>1503</v>
       </c>
       <c r="AG90" s="36">
@@ -22114,10 +22144,10 @@
       <c r="AD91" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE91" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF91" s="19">
+      <c r="AE91" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF91" s="43">
         <v>1503</v>
       </c>
       <c r="AG91" s="36">
@@ -22284,10 +22314,10 @@
       <c r="AD92" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE92" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF92" s="19">
+      <c r="AE92" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF92" s="43">
         <v>1503</v>
       </c>
       <c r="AG92" s="36">
@@ -22454,10 +22484,10 @@
       <c r="AD93" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE93" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF93" s="19">
+      <c r="AE93" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF93" s="43">
         <v>673</v>
       </c>
       <c r="AG93" s="36">
@@ -22624,10 +22654,10 @@
       <c r="AD94" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE94" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF94" s="19">
+      <c r="AE94" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF94" s="43">
         <v>673</v>
       </c>
       <c r="AG94" s="36">
@@ -22794,10 +22824,10 @@
       <c r="AD95" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE95" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF95" s="19">
+      <c r="AE95" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF95" s="43">
         <v>673</v>
       </c>
       <c r="AG95" s="36">
@@ -22964,10 +22994,10 @@
       <c r="AD96" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE96" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF96" s="19">
+      <c r="AE96" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF96" s="43">
         <v>673</v>
       </c>
       <c r="AG96" s="36">
@@ -23134,10 +23164,10 @@
       <c r="AD97" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE97" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF97" s="13" t="s">
+      <c r="AE97" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF97" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG97" s="13" t="s">
@@ -23304,10 +23334,10 @@
       <c r="AD98" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE98" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF98" s="13" t="s">
+      <c r="AE98" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF98" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG98" s="13" t="s">
@@ -23474,10 +23504,10 @@
       <c r="AD99" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE99" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF99" s="19">
+      <c r="AE99" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF99" s="43">
         <v>1331</v>
       </c>
       <c r="AG99" s="36">
@@ -23644,10 +23674,10 @@
       <c r="AD100" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE100" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF100" s="19">
+      <c r="AE100" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF100" s="43">
         <v>1331</v>
       </c>
       <c r="AG100" s="36">
@@ -23814,10 +23844,10 @@
       <c r="AD101" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE101" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF101" s="19">
+      <c r="AE101" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF101" s="43">
         <v>1331</v>
       </c>
       <c r="AG101" s="36">
@@ -23984,10 +24014,10 @@
       <c r="AD102" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE102" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF102" s="19">
+      <c r="AE102" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF102" s="43">
         <v>1331</v>
       </c>
       <c r="AG102" s="36">
@@ -24154,10 +24184,10 @@
       <c r="AD103" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE103" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF103" s="19">
+      <c r="AE103" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF103" s="43">
         <v>724</v>
       </c>
       <c r="AG103" s="36">
@@ -24324,10 +24354,10 @@
       <c r="AD104" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE104" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF104" s="19">
+      <c r="AE104" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF104" s="43">
         <v>724</v>
       </c>
       <c r="AG104" s="36">
@@ -24494,10 +24524,10 @@
       <c r="AD105" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE105" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF105" s="19">
+      <c r="AE105" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF105" s="43">
         <v>724</v>
       </c>
       <c r="AG105" s="36">
@@ -24664,10 +24694,10 @@
       <c r="AD106" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE106" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF106" s="19">
+      <c r="AE106" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF106" s="43">
         <v>724</v>
       </c>
       <c r="AG106" s="36">
@@ -24834,10 +24864,10 @@
       <c r="AD107" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE107" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF107" s="13" t="s">
+      <c r="AE107" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF107" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG107" s="13" t="s">
@@ -25004,10 +25034,10 @@
       <c r="AD108" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE108" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF108" s="13" t="s">
+      <c r="AE108" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF108" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG108" s="13" t="s">
@@ -25174,10 +25204,10 @@
       <c r="AD109" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE109" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF109" s="19">
+      <c r="AE109" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF109" s="43">
         <v>9485</v>
       </c>
       <c r="AG109" s="36">
@@ -25344,10 +25374,10 @@
       <c r="AD110" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE110" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF110" s="19">
+      <c r="AE110" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF110" s="43">
         <v>9485</v>
       </c>
       <c r="AG110" s="36">
@@ -25514,10 +25544,10 @@
       <c r="AD111" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE111" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF111" s="19">
+      <c r="AE111" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF111" s="43">
         <v>9485</v>
       </c>
       <c r="AG111" s="36">
@@ -25684,10 +25714,10 @@
       <c r="AD112" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE112" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF112" s="19">
+      <c r="AE112" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF112" s="43">
         <v>9485</v>
       </c>
       <c r="AG112" s="36">
@@ -25854,10 +25884,10 @@
       <c r="AD113" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE113" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF113" s="19">
+      <c r="AE113" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF113" s="43">
         <v>3487</v>
       </c>
       <c r="AG113" s="36">
@@ -26024,10 +26054,10 @@
       <c r="AD114" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE114" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF114" s="19">
+      <c r="AE114" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF114" s="43">
         <v>3487</v>
       </c>
       <c r="AG114" s="36">
@@ -26194,10 +26224,10 @@
       <c r="AD115" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE115" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF115" s="19">
+      <c r="AE115" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF115" s="43">
         <v>3487</v>
       </c>
       <c r="AG115" s="36">
@@ -26364,10 +26394,10 @@
       <c r="AD116" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE116" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF116" s="19">
+      <c r="AE116" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF116" s="43">
         <v>3487</v>
       </c>
       <c r="AG116" s="36">
@@ -26534,10 +26564,10 @@
       <c r="AD117" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE117" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF117" s="13" t="s">
+      <c r="AE117" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF117" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG117" s="13" t="s">
@@ -26704,10 +26734,10 @@
       <c r="AD118" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE118" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF118" s="13" t="s">
+      <c r="AE118" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF118" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG118" s="13" t="s">
@@ -26874,10 +26904,10 @@
       <c r="AD119" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE119" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF119" s="19">
+      <c r="AE119" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF119" s="43">
         <v>4572</v>
       </c>
       <c r="AG119" s="36">
@@ -27044,10 +27074,10 @@
       <c r="AD120" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE120" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF120" s="19">
+      <c r="AE120" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF120" s="43">
         <v>4572</v>
       </c>
       <c r="AG120" s="36">
@@ -27214,10 +27244,10 @@
       <c r="AD121" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE121" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF121" s="19">
+      <c r="AE121" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF121" s="43">
         <v>4572</v>
       </c>
       <c r="AG121" s="36">
@@ -27384,10 +27414,10 @@
       <c r="AD122" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE122" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF122" s="19">
+      <c r="AE122" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF122" s="43">
         <v>4572</v>
       </c>
       <c r="AG122" s="36">
@@ -27554,10 +27584,10 @@
       <c r="AD123" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE123" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF123" s="19">
+      <c r="AE123" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF123" s="43">
         <v>924</v>
       </c>
       <c r="AG123" s="36">
@@ -27724,10 +27754,10 @@
       <c r="AD124" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE124" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF124" s="19">
+      <c r="AE124" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF124" s="43">
         <v>924</v>
       </c>
       <c r="AG124" s="36">
@@ -27894,10 +27924,10 @@
       <c r="AD125" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE125" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF125" s="19">
+      <c r="AE125" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF125" s="43">
         <v>924</v>
       </c>
       <c r="AG125" s="36">
@@ -28064,10 +28094,10 @@
       <c r="AD126" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE126" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF126" s="19">
+      <c r="AE126" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF126" s="43">
         <v>924</v>
       </c>
       <c r="AG126" s="36">
@@ -28234,10 +28264,10 @@
       <c r="AD127" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE127" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF127" s="13" t="s">
+      <c r="AE127" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF127" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG127" s="13" t="s">
@@ -28404,10 +28434,10 @@
       <c r="AD128" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE128" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF128" s="13" t="s">
+      <c r="AE128" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF128" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG128" s="13" t="s">
@@ -28574,10 +28604,10 @@
       <c r="AD129" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE129" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF129" s="19">
+      <c r="AE129" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF129" s="43">
         <v>6193</v>
       </c>
       <c r="AG129" s="36">
@@ -28744,10 +28774,10 @@
       <c r="AD130" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE130" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF130" s="19">
+      <c r="AE130" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF130" s="43">
         <v>6193</v>
       </c>
       <c r="AG130" s="36">
@@ -28914,10 +28944,10 @@
       <c r="AD131" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE131" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF131" s="19">
+      <c r="AE131" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF131" s="43">
         <v>6193</v>
       </c>
       <c r="AG131" s="36">
@@ -29084,10 +29114,10 @@
       <c r="AD132" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE132" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF132" s="19">
+      <c r="AE132" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF132" s="43">
         <v>6193</v>
       </c>
       <c r="AG132" s="36">
@@ -29254,10 +29284,10 @@
       <c r="AD133" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE133" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF133" s="19">
+      <c r="AE133" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF133" s="43">
         <v>1110</v>
       </c>
       <c r="AG133" s="36">
@@ -29424,10 +29454,10 @@
       <c r="AD134" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE134" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF134" s="19">
+      <c r="AE134" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF134" s="43">
         <v>1110</v>
       </c>
       <c r="AG134" s="36">
@@ -29594,10 +29624,10 @@
       <c r="AD135" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE135" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF135" s="19">
+      <c r="AE135" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF135" s="43">
         <v>1110</v>
       </c>
       <c r="AG135" s="36">
@@ -29764,10 +29794,10 @@
       <c r="AD136" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE136" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF136" s="19">
+      <c r="AE136" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF136" s="43">
         <v>1110</v>
       </c>
       <c r="AG136" s="36">
@@ -29934,10 +29964,10 @@
       <c r="AD137" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE137" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF137" s="13" t="s">
+      <c r="AE137" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF137" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG137" s="13" t="s">
@@ -30104,10 +30134,10 @@
       <c r="AD138" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE138" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF138" s="13" t="s">
+      <c r="AE138" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF138" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG138" s="13" t="s">
@@ -30274,10 +30304,10 @@
       <c r="AD139" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE139" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF139" s="19">
+      <c r="AE139" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF139" s="43">
         <v>94921</v>
       </c>
       <c r="AG139" s="36">
@@ -30444,10 +30474,10 @@
       <c r="AD140" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE140" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF140" s="19">
+      <c r="AE140" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF140" s="43">
         <v>94921</v>
       </c>
       <c r="AG140" s="36">
@@ -30614,10 +30644,10 @@
       <c r="AD141" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE141" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF141" s="19">
+      <c r="AE141" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF141" s="43">
         <v>94921</v>
       </c>
       <c r="AG141" s="36">
@@ -30784,10 +30814,10 @@
       <c r="AD142" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE142" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF142" s="19">
+      <c r="AE142" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF142" s="43">
         <v>94921</v>
       </c>
       <c r="AG142" s="36">
@@ -30954,10 +30984,10 @@
       <c r="AD143" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE143" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF143" s="19">
+      <c r="AE143" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF143" s="43">
         <v>429</v>
       </c>
       <c r="AG143" s="36">
@@ -31124,10 +31154,10 @@
       <c r="AD144" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE144" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF144" s="19">
+      <c r="AE144" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF144" s="43">
         <v>429</v>
       </c>
       <c r="AG144" s="36">
@@ -31294,10 +31324,10 @@
       <c r="AD145" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE145" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF145" s="19">
+      <c r="AE145" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF145" s="43">
         <v>429</v>
       </c>
       <c r="AG145" s="36">
@@ -31464,10 +31494,10 @@
       <c r="AD146" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE146" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF146" s="19">
+      <c r="AE146" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF146" s="43">
         <v>429</v>
       </c>
       <c r="AG146" s="36">
@@ -31634,10 +31664,10 @@
       <c r="AD147" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE147" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF147" s="13" t="s">
+      <c r="AE147" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF147" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG147" s="13" t="s">
@@ -31804,10 +31834,10 @@
       <c r="AD148" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE148" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF148" s="13" t="s">
+      <c r="AE148" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF148" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG148" s="13" t="s">
@@ -31974,10 +32004,10 @@
       <c r="AD149" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE149" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF149" s="19">
+      <c r="AE149" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF149" s="43">
         <v>3032</v>
       </c>
       <c r="AG149" s="36">
@@ -32144,10 +32174,10 @@
       <c r="AD150" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE150" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF150" s="19">
+      <c r="AE150" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF150" s="43">
         <v>3032</v>
       </c>
       <c r="AG150" s="36">
@@ -32314,10 +32344,10 @@
       <c r="AD151" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE151" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF151" s="19">
+      <c r="AE151" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF151" s="43">
         <v>3032</v>
       </c>
       <c r="AG151" s="36">
@@ -32484,10 +32514,10 @@
       <c r="AD152" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE152" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF152" s="19">
+      <c r="AE152" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF152" s="43">
         <v>3032</v>
       </c>
       <c r="AG152" s="36">
@@ -32654,10 +32684,10 @@
       <c r="AD153" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE153" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF153" s="19">
+      <c r="AE153" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF153" s="43">
         <v>1945</v>
       </c>
       <c r="AG153" s="36">
@@ -32824,10 +32854,10 @@
       <c r="AD154" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE154" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF154" s="19">
+      <c r="AE154" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF154" s="43">
         <v>1945</v>
       </c>
       <c r="AG154" s="36">
@@ -32994,10 +33024,10 @@
       <c r="AD155" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE155" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF155" s="19">
+      <c r="AE155" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF155" s="43">
         <v>1945</v>
       </c>
       <c r="AG155" s="36">
@@ -33164,10 +33194,10 @@
       <c r="AD156" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE156" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF156" s="19">
+      <c r="AE156" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF156" s="43">
         <v>1945</v>
       </c>
       <c r="AG156" s="36">
@@ -33334,10 +33364,10 @@
       <c r="AD157" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE157" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF157" s="13" t="s">
+      <c r="AE157" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF157" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG157" s="13" t="s">
@@ -33504,10 +33534,10 @@
       <c r="AD158" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE158" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF158" s="13" t="s">
+      <c r="AE158" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF158" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG158" s="13" t="s">
@@ -33674,10 +33704,10 @@
       <c r="AD159" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE159" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF159" s="19">
+      <c r="AE159" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF159" s="43">
         <v>3193</v>
       </c>
       <c r="AG159" s="36">
@@ -33844,10 +33874,10 @@
       <c r="AD160" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE160" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF160" s="19">
+      <c r="AE160" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF160" s="43">
         <v>3193</v>
       </c>
       <c r="AG160" s="36">
@@ -34014,10 +34044,10 @@
       <c r="AD161" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE161" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF161" s="19">
+      <c r="AE161" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF161" s="43">
         <v>3193</v>
       </c>
       <c r="AG161" s="36">
@@ -34184,10 +34214,10 @@
       <c r="AD162" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE162" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF162" s="19">
+      <c r="AE162" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF162" s="43">
         <v>3193</v>
       </c>
       <c r="AG162" s="36">
@@ -34354,10 +34384,10 @@
       <c r="AD163" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE163" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF163" s="19">
+      <c r="AE163" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF163" s="43">
         <v>2033</v>
       </c>
       <c r="AG163" s="36">
@@ -34524,10 +34554,10 @@
       <c r="AD164" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE164" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF164" s="19">
+      <c r="AE164" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF164" s="43">
         <v>2033</v>
       </c>
       <c r="AG164" s="36">
@@ -34694,10 +34724,10 @@
       <c r="AD165" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE165" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF165" s="19">
+      <c r="AE165" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF165" s="43">
         <v>2033</v>
       </c>
       <c r="AG165" s="36">
@@ -34864,10 +34894,10 @@
       <c r="AD166" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE166" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF166" s="19">
+      <c r="AE166" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF166" s="43">
         <v>2033</v>
       </c>
       <c r="AG166" s="36">
@@ -35034,10 +35064,10 @@
       <c r="AD167" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE167" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF167" s="13" t="s">
+      <c r="AE167" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF167" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG167" s="13" t="s">
@@ -35204,10 +35234,10 @@
       <c r="AD168" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE168" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF168" s="13" t="s">
+      <c r="AE168" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF168" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG168" s="13" t="s">
@@ -35374,10 +35404,10 @@
       <c r="AD169" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE169" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF169" s="19">
+      <c r="AE169" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF169" s="43">
         <v>19308</v>
       </c>
       <c r="AG169" s="36">
@@ -35544,10 +35574,10 @@
       <c r="AD170" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE170" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF170" s="19">
+      <c r="AE170" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF170" s="43">
         <v>19308</v>
       </c>
       <c r="AG170" s="36">
@@ -35714,10 +35744,10 @@
       <c r="AD171" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE171" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF171" s="19">
+      <c r="AE171" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF171" s="43">
         <v>19308</v>
       </c>
       <c r="AG171" s="36">
@@ -35884,10 +35914,10 @@
       <c r="AD172" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE172" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF172" s="19">
+      <c r="AE172" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF172" s="43">
         <v>19308</v>
       </c>
       <c r="AG172" s="36">
@@ -36054,10 +36084,10 @@
       <c r="AD173" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE173" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF173" s="19">
+      <c r="AE173" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF173" s="43">
         <v>2112</v>
       </c>
       <c r="AG173" s="36">
@@ -36224,10 +36254,10 @@
       <c r="AD174" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE174" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF174" s="19">
+      <c r="AE174" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF174" s="43">
         <v>2112</v>
       </c>
       <c r="AG174" s="36">
@@ -36394,10 +36424,10 @@
       <c r="AD175" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE175" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF175" s="19">
+      <c r="AE175" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF175" s="43">
         <v>2112</v>
       </c>
       <c r="AG175" s="36">
@@ -36564,10 +36594,10 @@
       <c r="AD176" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE176" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF176" s="19">
+      <c r="AE176" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF176" s="43">
         <v>2112</v>
       </c>
       <c r="AG176" s="36">
@@ -36734,10 +36764,10 @@
       <c r="AD177" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE177" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF177" s="13" t="s">
+      <c r="AE177" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF177" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG177" s="13" t="s">
@@ -36904,10 +36934,10 @@
       <c r="AD178" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE178" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF178" s="13" t="s">
+      <c r="AE178" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF178" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG178" s="13" t="s">
@@ -37074,10 +37104,10 @@
       <c r="AD179" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE179" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF179" s="19">
+      <c r="AE179" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF179" s="43">
         <v>78016</v>
       </c>
       <c r="AG179" s="36">
@@ -37244,10 +37274,10 @@
       <c r="AD180" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE180" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF180" s="19">
+      <c r="AE180" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF180" s="43">
         <v>78016</v>
       </c>
       <c r="AG180" s="36">
@@ -37414,10 +37444,10 @@
       <c r="AD181" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE181" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF181" s="19">
+      <c r="AE181" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF181" s="43">
         <v>78016</v>
       </c>
       <c r="AG181" s="36">
@@ -37584,10 +37614,10 @@
       <c r="AD182" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE182" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF182" s="19">
+      <c r="AE182" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF182" s="43">
         <v>78016</v>
       </c>
       <c r="AG182" s="36">
@@ -37754,10 +37784,10 @@
       <c r="AD183" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE183" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF183" s="19">
+      <c r="AE183" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF183" s="43">
         <v>2509</v>
       </c>
       <c r="AG183" s="36">
@@ -37924,10 +37954,10 @@
       <c r="AD184" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE184" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF184" s="19">
+      <c r="AE184" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF184" s="43">
         <v>2509</v>
       </c>
       <c r="AG184" s="36">
@@ -38094,10 +38124,10 @@
       <c r="AD185" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE185" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF185" s="19">
+      <c r="AE185" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF185" s="43">
         <v>2509</v>
       </c>
       <c r="AG185" s="36">
@@ -38264,10 +38294,10 @@
       <c r="AD186" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE186" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF186" s="19">
+      <c r="AE186" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF186" s="43">
         <v>2509</v>
       </c>
       <c r="AG186" s="36">
@@ -38434,10 +38464,10 @@
       <c r="AD187" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE187" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF187" s="13" t="s">
+      <c r="AE187" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF187" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG187" s="13" t="s">
@@ -38604,10 +38634,10 @@
       <c r="AD188" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="AE188" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF188" s="13" t="s">
+      <c r="AE188" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF188" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG188" s="13" t="s">
@@ -38747,8 +38777,8 @@
       <c r="U189" s="4">
         <v>2.843</v>
       </c>
-      <c r="V189" s="4">
-        <v>8.5500000000000007</v>
+      <c r="V189" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W189" s="4">
         <v>-108.4</v>
@@ -38917,8 +38947,8 @@
       <c r="U190" s="4">
         <v>2.843</v>
       </c>
-      <c r="V190" s="4">
-        <v>8.5500000000000007</v>
+      <c r="V190" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W190" s="4">
         <v>-108.4</v>
@@ -38944,10 +38974,10 @@
       <c r="AD190" s="4">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="AE190" s="4">
+      <c r="AE190" s="44">
         <v>0.2</v>
       </c>
-      <c r="AF190" s="13" t="s">
+      <c r="AF190" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG190" s="13" t="s">
@@ -39087,8 +39117,8 @@
       <c r="U191" s="4">
         <v>2.843</v>
       </c>
-      <c r="V191" s="4">
-        <v>8.5500000000000007</v>
+      <c r="V191" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W191" s="4">
         <v>-108.4</v>
@@ -39114,10 +39144,10 @@
       <c r="AD191" s="4">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="AE191" s="4">
+      <c r="AE191" s="44">
         <v>0.2</v>
       </c>
-      <c r="AF191" s="13" t="s">
+      <c r="AF191" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG191" s="13" t="s">
@@ -39257,8 +39287,8 @@
       <c r="U192" s="4">
         <v>2.843</v>
       </c>
-      <c r="V192" s="4">
-        <v>8.5500000000000007</v>
+      <c r="V192" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W192" s="4">
         <v>-108.4</v>
@@ -39284,10 +39314,10 @@
       <c r="AD192" s="4">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="AE192" s="4">
+      <c r="AE192" s="44">
         <v>0.2</v>
       </c>
-      <c r="AF192" s="13" t="s">
+      <c r="AF192" s="42" t="s">
         <v>389</v>
       </c>
       <c r="AG192" s="13" t="s">
@@ -39363,7 +39393,7 @@
         <v>9.2200000000000006</v>
       </c>
     </row>
-    <row r="193" spans="1:56">
+    <row r="193" spans="1:56" s="10" customFormat="1">
       <c r="A193" s="4" t="s">
         <v>232</v>
       </c>
@@ -39427,8 +39457,8 @@
       <c r="U193" s="4">
         <v>20.029</v>
       </c>
-      <c r="V193" s="4">
-        <v>8.2799999999999994</v>
+      <c r="V193" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W193" s="4">
         <v>-89.3</v>
@@ -39533,7 +39563,7 @@
         <v>1056.53</v>
       </c>
     </row>
-    <row r="194" spans="1:56">
+    <row r="194" spans="1:56" s="10" customFormat="1">
       <c r="A194" s="4" t="s">
         <v>233</v>
       </c>
@@ -39597,8 +39627,8 @@
       <c r="U194" s="4">
         <v>20.029</v>
       </c>
-      <c r="V194" s="4">
-        <v>8.2799999999999994</v>
+      <c r="V194" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W194" s="4">
         <v>-89.3</v>
@@ -39703,7 +39733,7 @@
         <v>1056.53</v>
       </c>
     </row>
-    <row r="195" spans="1:56">
+    <row r="195" spans="1:56" s="10" customFormat="1">
       <c r="A195" s="4" t="s">
         <v>234</v>
       </c>
@@ -39767,8 +39797,8 @@
       <c r="U195" s="4">
         <v>2.843</v>
       </c>
-      <c r="V195" s="4">
-        <v>8.5500000000000007</v>
+      <c r="V195" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W195" s="4">
         <v>-108.4</v>
@@ -39873,7 +39903,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="196" spans="1:56">
+    <row r="196" spans="1:56" s="10" customFormat="1">
       <c r="A196" s="4" t="s">
         <v>235</v>
       </c>
@@ -39937,8 +39967,8 @@
       <c r="U196" s="4">
         <v>2.843</v>
       </c>
-      <c r="V196" s="4">
-        <v>8.5500000000000007</v>
+      <c r="V196" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W196" s="4">
         <v>-108.4</v>
@@ -40043,7 +40073,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="197" spans="1:56">
+    <row r="197" spans="1:56" s="10" customFormat="1">
       <c r="A197" s="4" t="s">
         <v>236</v>
       </c>
@@ -40077,65 +40107,65 @@
       <c r="K197" s="4">
         <v>2</v>
       </c>
-      <c r="L197" s="4">
-        <v>16.077999999999999</v>
-      </c>
-      <c r="M197" s="4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="N197" s="4">
-        <v>24.6</v>
-      </c>
-      <c r="O197" s="4">
-        <v>24.3</v>
-      </c>
-      <c r="P197" s="4">
-        <v>16</v>
-      </c>
-      <c r="Q197" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="R197" s="4">
-        <v>122.9</v>
-      </c>
-      <c r="S197" s="4">
-        <v>12.115</v>
-      </c>
-      <c r="T197" s="4">
-        <v>126.8</v>
-      </c>
-      <c r="U197" s="4">
-        <v>2.8685</v>
-      </c>
-      <c r="V197" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="W197" s="4">
-        <v>-69.8</v>
-      </c>
-      <c r="X197" s="4">
-        <v>178.55</v>
-      </c>
-      <c r="Y197" s="4">
-        <v>290.14999999999998</v>
-      </c>
-      <c r="Z197" s="4">
-        <v>736.6</v>
-      </c>
-      <c r="AA197" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="AB197" s="4">
-        <v>2.5649999999999999</v>
+      <c r="L197" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="M197" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="N197" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="O197" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="P197" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q197" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="R197" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="S197" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="T197" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="U197" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="V197" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="W197" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="X197" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y197" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z197" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA197" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB197" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="AC197" s="10">
         <v>2.7</v>
       </c>
-      <c r="AD197" s="4">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AE197" s="4">
-        <v>0.97499999999999998</v>
+      <c r="AD197" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE197" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="AF197" s="13" t="s">
         <v>389</v>
@@ -40213,7 +40243,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="198" spans="1:56">
+    <row r="198" spans="1:56" s="10" customFormat="1">
       <c r="A198" s="4" t="s">
         <v>237</v>
       </c>
@@ -40247,65 +40277,65 @@
       <c r="K198" s="4">
         <v>2</v>
       </c>
-      <c r="L198" s="4">
-        <v>16.077999999999999</v>
-      </c>
-      <c r="M198" s="4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="N198" s="4">
-        <v>24.6</v>
-      </c>
-      <c r="O198" s="4">
-        <v>24.3</v>
-      </c>
-      <c r="P198" s="4">
-        <v>16</v>
-      </c>
-      <c r="Q198" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="R198" s="4">
-        <v>122.9</v>
-      </c>
-      <c r="S198" s="4">
-        <v>12.115</v>
-      </c>
-      <c r="T198" s="4">
-        <v>126.8</v>
-      </c>
-      <c r="U198" s="4">
-        <v>2.8685</v>
-      </c>
-      <c r="V198" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="W198" s="4">
-        <v>-69.8</v>
-      </c>
-      <c r="X198" s="4">
-        <v>178.55</v>
-      </c>
-      <c r="Y198" s="4">
-        <v>290.14999999999998</v>
-      </c>
-      <c r="Z198" s="4">
-        <v>736.6</v>
-      </c>
-      <c r="AA198" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="AB198" s="4">
-        <v>2.5649999999999999</v>
+      <c r="L198" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="M198" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="N198" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="O198" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="P198" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q198" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="R198" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="S198" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="T198" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="U198" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="V198" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="W198" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="X198" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y198" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z198" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA198" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB198" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="AC198" s="10">
         <v>2.7</v>
       </c>
-      <c r="AD198" s="4">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AE198" s="4">
-        <v>0.97499999999999998</v>
+      <c r="AD198" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE198" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="AF198" s="13" t="s">
         <v>389</v>
@@ -40383,7 +40413,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="199" spans="1:56">
+    <row r="199" spans="1:56" s="10" customFormat="1">
       <c r="A199" s="4" t="s">
         <v>238</v>
       </c>
@@ -40417,65 +40447,65 @@
       <c r="K199" s="4">
         <v>2</v>
       </c>
-      <c r="L199" s="4">
-        <v>16.077999999999999</v>
-      </c>
-      <c r="M199" s="4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="N199" s="4">
-        <v>24.6</v>
-      </c>
-      <c r="O199" s="4">
-        <v>24.3</v>
-      </c>
-      <c r="P199" s="4">
-        <v>16</v>
-      </c>
-      <c r="Q199" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="R199" s="4">
-        <v>122.9</v>
-      </c>
-      <c r="S199" s="4">
-        <v>12.115</v>
-      </c>
-      <c r="T199" s="4">
-        <v>126.8</v>
-      </c>
-      <c r="U199" s="4">
-        <v>2.8685</v>
-      </c>
-      <c r="V199" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="W199" s="4">
-        <v>-69.8</v>
-      </c>
-      <c r="X199" s="4">
-        <v>178.55</v>
-      </c>
-      <c r="Y199" s="4">
-        <v>290.14999999999998</v>
-      </c>
-      <c r="Z199" s="4">
-        <v>736.6</v>
-      </c>
-      <c r="AA199" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="AB199" s="4">
-        <v>2.5649999999999999</v>
+      <c r="L199" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="M199" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="N199" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="O199" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="P199" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q199" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="R199" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="S199" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="T199" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="U199" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="V199" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="W199" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="X199" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y199" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z199" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA199" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB199" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="AC199" s="10">
         <v>2.2599999999999998</v>
       </c>
-      <c r="AD199" s="4">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AE199" s="4">
-        <v>0.97499999999999998</v>
+      <c r="AD199" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE199" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="AF199" s="13" t="s">
         <v>389</v>
@@ -40553,7 +40583,7 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="200" spans="1:56">
+    <row r="200" spans="1:56" s="10" customFormat="1">
       <c r="A200" s="4" t="s">
         <v>239</v>
       </c>
@@ -40587,65 +40617,65 @@
       <c r="K200" s="4">
         <v>2</v>
       </c>
-      <c r="L200" s="4">
-        <v>16.077999999999999</v>
-      </c>
-      <c r="M200" s="4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="N200" s="4">
-        <v>24.6</v>
-      </c>
-      <c r="O200" s="4">
-        <v>24.3</v>
-      </c>
-      <c r="P200" s="4">
-        <v>16</v>
-      </c>
-      <c r="Q200" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="R200" s="4">
-        <v>122.9</v>
-      </c>
-      <c r="S200" s="4">
-        <v>12.115</v>
-      </c>
-      <c r="T200" s="4">
-        <v>126.8</v>
-      </c>
-      <c r="U200" s="4">
-        <v>2.8685</v>
-      </c>
-      <c r="V200" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="W200" s="4">
-        <v>-69.8</v>
-      </c>
-      <c r="X200" s="4">
-        <v>178.55</v>
-      </c>
-      <c r="Y200" s="4">
-        <v>290.14999999999998</v>
-      </c>
-      <c r="Z200" s="4">
-        <v>736.6</v>
-      </c>
-      <c r="AA200" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="AB200" s="4">
-        <v>2.5649999999999999</v>
+      <c r="L200" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="M200" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="N200" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="O200" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="P200" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q200" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="R200" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="S200" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="T200" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="U200" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="V200" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="W200" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="X200" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y200" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z200" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA200" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB200" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="AC200" s="10">
         <v>2.2599999999999998</v>
       </c>
-      <c r="AD200" s="4">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AE200" s="4">
-        <v>0.97499999999999998</v>
+      <c r="AD200" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE200" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="AF200" s="13" t="s">
         <v>389</v>
@@ -40723,7 +40753,7 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="201" spans="1:56">
+    <row r="201" spans="1:56" s="10" customFormat="1">
       <c r="A201" s="4" t="s">
         <v>240</v>
       </c>
@@ -40757,65 +40787,65 @@
       <c r="K201" s="4">
         <v>8</v>
       </c>
-      <c r="L201" s="4">
-        <v>22.306000000000001</v>
-      </c>
-      <c r="M201" s="4">
-        <v>217.1</v>
-      </c>
-      <c r="N201" s="4">
-        <v>230.05</v>
-      </c>
-      <c r="O201" s="4">
-        <v>228.85</v>
-      </c>
-      <c r="P201" s="4">
-        <v>149</v>
-      </c>
-      <c r="Q201" s="4">
-        <v>0.11</v>
-      </c>
-      <c r="R201" s="4">
-        <v>130.65</v>
-      </c>
-      <c r="S201" s="4">
-        <v>11.35</v>
-      </c>
-      <c r="T201" s="4">
-        <v>134.80000000000001</v>
-      </c>
-      <c r="U201" s="4">
-        <v>11.3505</v>
-      </c>
-      <c r="V201" s="4">
-        <v>8.59</v>
-      </c>
-      <c r="W201" s="4">
-        <v>-110.6</v>
-      </c>
-      <c r="X201" s="4">
-        <v>136.80000000000001</v>
-      </c>
-      <c r="Y201" s="4">
-        <v>248.4</v>
-      </c>
-      <c r="Z201" s="4">
-        <v>736.8</v>
-      </c>
-      <c r="AA201" s="4">
-        <v>1.6950000000000001</v>
-      </c>
-      <c r="AB201" s="4">
-        <v>7.2949999999999999</v>
+      <c r="L201" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="M201" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="N201" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="O201" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="P201" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q201" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="R201" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="S201" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="T201" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="U201" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="V201" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="W201" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="X201" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y201" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z201" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA201" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB201" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="AC201" s="10">
         <v>30.9</v>
       </c>
-      <c r="AD201" s="4">
-        <v>-0.19</v>
-      </c>
-      <c r="AE201" s="4">
-        <v>0.15</v>
+      <c r="AD201" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE201" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="AF201" s="13" t="s">
         <v>389</v>
@@ -40893,7 +40923,7 @@
         <v>300.3</v>
       </c>
     </row>
-    <row r="202" spans="1:56">
+    <row r="202" spans="1:56" s="10" customFormat="1">
       <c r="A202" s="4" t="s">
         <v>241</v>
       </c>
@@ -40927,65 +40957,65 @@
       <c r="K202" s="4">
         <v>8</v>
       </c>
-      <c r="L202" s="4">
-        <v>22.306000000000001</v>
-      </c>
-      <c r="M202" s="4">
-        <v>217.1</v>
-      </c>
-      <c r="N202" s="4">
-        <v>230.05</v>
-      </c>
-      <c r="O202" s="4">
-        <v>228.85</v>
-      </c>
-      <c r="P202" s="4">
-        <v>149</v>
-      </c>
-      <c r="Q202" s="4">
-        <v>0.11</v>
-      </c>
-      <c r="R202" s="4">
-        <v>130.65</v>
-      </c>
-      <c r="S202" s="4">
-        <v>11.35</v>
-      </c>
-      <c r="T202" s="4">
-        <v>134.80000000000001</v>
-      </c>
-      <c r="U202" s="4">
-        <v>11.3505</v>
-      </c>
-      <c r="V202" s="4">
-        <v>8.59</v>
-      </c>
-      <c r="W202" s="4">
-        <v>-110.6</v>
-      </c>
-      <c r="X202" s="4">
-        <v>136.80000000000001</v>
-      </c>
-      <c r="Y202" s="4">
-        <v>248.4</v>
-      </c>
-      <c r="Z202" s="4">
-        <v>736.8</v>
-      </c>
-      <c r="AA202" s="4">
-        <v>1.6950000000000001</v>
-      </c>
-      <c r="AB202" s="4">
-        <v>7.2949999999999999</v>
+      <c r="L202" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="M202" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="N202" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="O202" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="P202" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q202" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="R202" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="S202" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="T202" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="U202" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="V202" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="W202" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="X202" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y202" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z202" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA202" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB202" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="AC202" s="10">
         <v>30.9</v>
       </c>
-      <c r="AD202" s="4">
-        <v>-0.19</v>
-      </c>
-      <c r="AE202" s="4">
-        <v>0.15</v>
+      <c r="AD202" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE202" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="AF202" s="13" t="s">
         <v>389</v>
@@ -41063,7 +41093,7 @@
         <v>300.3</v>
       </c>
     </row>
-    <row r="203" spans="1:56">
+    <row r="203" spans="1:56" s="10" customFormat="1">
       <c r="A203" s="4" t="s">
         <v>242</v>
       </c>
@@ -41097,65 +41127,65 @@
       <c r="K203" s="4">
         <v>2</v>
       </c>
-      <c r="L203" s="4">
-        <v>16.077999999999999</v>
-      </c>
-      <c r="M203" s="4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="N203" s="4">
-        <v>24.6</v>
-      </c>
-      <c r="O203" s="4">
-        <v>24.3</v>
-      </c>
-      <c r="P203" s="4">
-        <v>16</v>
-      </c>
-      <c r="Q203" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="R203" s="4">
-        <v>122.9</v>
-      </c>
-      <c r="S203" s="4">
-        <v>12.115</v>
-      </c>
-      <c r="T203" s="4">
-        <v>126.8</v>
-      </c>
-      <c r="U203" s="4">
-        <v>2.8685</v>
-      </c>
-      <c r="V203" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="W203" s="4">
-        <v>-69.8</v>
-      </c>
-      <c r="X203" s="4">
-        <v>178.55</v>
-      </c>
-      <c r="Y203" s="4">
-        <v>290.14999999999998</v>
-      </c>
-      <c r="Z203" s="4">
-        <v>736.6</v>
-      </c>
-      <c r="AA203" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="AB203" s="4">
-        <v>2.5649999999999999</v>
+      <c r="L203" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="M203" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="N203" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="O203" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="P203" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q203" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="R203" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="S203" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="T203" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="U203" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="V203" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="W203" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="X203" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y203" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z203" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA203" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB203" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="AC203" s="10">
         <v>3.15</v>
       </c>
-      <c r="AD203" s="4">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AE203" s="4">
-        <v>0.97499999999999998</v>
+      <c r="AD203" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE203" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="AF203" s="13" t="s">
         <v>389</v>
@@ -41233,7 +41263,7 @@
         <v>11.48</v>
       </c>
     </row>
-    <row r="204" spans="1:56">
+    <row r="204" spans="1:56" s="10" customFormat="1">
       <c r="A204" s="4" t="s">
         <v>243</v>
       </c>
@@ -41267,65 +41297,65 @@
       <c r="K204" s="4">
         <v>2</v>
       </c>
-      <c r="L204" s="4">
-        <v>16.077999999999999</v>
-      </c>
-      <c r="M204" s="4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="N204" s="4">
-        <v>24.6</v>
-      </c>
-      <c r="O204" s="4">
-        <v>24.3</v>
-      </c>
-      <c r="P204" s="4">
-        <v>16</v>
-      </c>
-      <c r="Q204" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="R204" s="4">
-        <v>122.9</v>
-      </c>
-      <c r="S204" s="4">
-        <v>12.115</v>
-      </c>
-      <c r="T204" s="4">
-        <v>126.8</v>
-      </c>
-      <c r="U204" s="4">
-        <v>2.8685</v>
-      </c>
-      <c r="V204" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="W204" s="4">
-        <v>-69.8</v>
-      </c>
-      <c r="X204" s="4">
-        <v>178.55</v>
-      </c>
-      <c r="Y204" s="4">
-        <v>290.14999999999998</v>
-      </c>
-      <c r="Z204" s="4">
-        <v>736.6</v>
-      </c>
-      <c r="AA204" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="AB204" s="4">
-        <v>2.5649999999999999</v>
+      <c r="L204" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="M204" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="N204" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="O204" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="P204" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q204" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="R204" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="S204" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="T204" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="U204" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="V204" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="W204" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="X204" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y204" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z204" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA204" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB204" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="AC204" s="10">
         <v>3.15</v>
       </c>
-      <c r="AD204" s="4">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AE204" s="4">
-        <v>0.97499999999999998</v>
+      <c r="AD204" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE204" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="AF204" s="13" t="s">
         <v>389</v>
@@ -41403,7 +41433,7 @@
         <v>11.48</v>
       </c>
     </row>
-    <row r="205" spans="1:56">
+    <row r="205" spans="1:56" s="10" customFormat="1">
       <c r="A205" s="4" t="s">
         <v>244</v>
       </c>
@@ -41467,8 +41497,8 @@
       <c r="U205" s="4">
         <v>2.919</v>
       </c>
-      <c r="V205" s="4">
-        <v>7.95</v>
+      <c r="V205" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W205" s="4">
         <v>-74.650000000000006</v>
@@ -41573,7 +41603,7 @@
         <v>11.42</v>
       </c>
     </row>
-    <row r="206" spans="1:56">
+    <row r="206" spans="1:56" s="10" customFormat="1">
       <c r="A206" s="4" t="s">
         <v>245</v>
       </c>
@@ -41637,8 +41667,8 @@
       <c r="U206" s="4">
         <v>2.919</v>
       </c>
-      <c r="V206" s="4">
-        <v>7.95</v>
+      <c r="V206" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W206" s="4">
         <v>-74.650000000000006</v>
@@ -41743,7 +41773,7 @@
         <v>11.42</v>
       </c>
     </row>
-    <row r="207" spans="1:56">
+    <row r="207" spans="1:56" s="10" customFormat="1">
       <c r="A207" s="4" t="s">
         <v>246</v>
       </c>
@@ -41807,8 +41837,8 @@
       <c r="U207" s="4">
         <v>2.919</v>
       </c>
-      <c r="V207" s="4">
-        <v>7.95</v>
+      <c r="V207" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W207" s="4">
         <v>-74.650000000000006</v>
@@ -41913,7 +41943,7 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="208" spans="1:56">
+    <row r="208" spans="1:56" s="10" customFormat="1">
       <c r="A208" s="4" t="s">
         <v>247</v>
       </c>
@@ -41977,8 +42007,8 @@
       <c r="U208" s="4">
         <v>2.919</v>
       </c>
-      <c r="V208" s="4">
-        <v>7.95</v>
+      <c r="V208" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W208" s="4">
         <v>-74.650000000000006</v>
@@ -42083,7 +42113,7 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="209" spans="1:56">
+    <row r="209" spans="1:56" s="10" customFormat="1">
       <c r="A209" s="4" t="s">
         <v>248</v>
       </c>
@@ -42147,8 +42177,8 @@
       <c r="U209" s="4">
         <v>18.588999999999999</v>
       </c>
-      <c r="V209" s="4">
-        <v>8.08</v>
+      <c r="V209" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W209" s="4">
         <v>-78.599999999999994</v>
@@ -42253,7 +42283,7 @@
         <v>730.43</v>
       </c>
     </row>
-    <row r="210" spans="1:56">
+    <row r="210" spans="1:56" s="10" customFormat="1">
       <c r="A210" s="4" t="s">
         <v>249</v>
       </c>
@@ -42317,8 +42347,8 @@
       <c r="U210" s="4">
         <v>18.588999999999999</v>
       </c>
-      <c r="V210" s="4">
-        <v>8.08</v>
+      <c r="V210" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W210" s="4">
         <v>-78.599999999999994</v>
@@ -42423,7 +42453,7 @@
         <v>730.43</v>
       </c>
     </row>
-    <row r="211" spans="1:56">
+    <row r="211" spans="1:56" s="10" customFormat="1">
       <c r="A211" s="4" t="s">
         <v>250</v>
       </c>
@@ -42487,8 +42517,8 @@
       <c r="U211" s="4">
         <v>2.919</v>
       </c>
-      <c r="V211" s="4">
-        <v>7.95</v>
+      <c r="V211" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W211" s="4">
         <v>-74.650000000000006</v>
@@ -42593,7 +42623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:56">
+    <row r="212" spans="1:56" s="10" customFormat="1">
       <c r="A212" s="4" t="s">
         <v>251</v>
       </c>
@@ -42657,8 +42687,8 @@
       <c r="U212" s="4">
         <v>2.919</v>
       </c>
-      <c r="V212" s="4">
-        <v>7.95</v>
+      <c r="V212" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W212" s="4">
         <v>-74.650000000000006</v>
@@ -42763,7 +42793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:56">
+    <row r="213" spans="1:56" s="10" customFormat="1">
       <c r="A213" s="4" t="s">
         <v>252</v>
       </c>
@@ -42827,8 +42857,8 @@
       <c r="U213" s="4">
         <v>2.76</v>
       </c>
-      <c r="V213" s="4">
-        <v>7.15</v>
+      <c r="V213" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W213" s="4">
         <v>-28.1</v>
@@ -42933,7 +42963,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="214" spans="1:56">
+    <row r="214" spans="1:56" s="10" customFormat="1">
       <c r="A214" s="4" t="s">
         <v>253</v>
       </c>
@@ -42997,8 +43027,8 @@
       <c r="U214" s="4">
         <v>2.76</v>
       </c>
-      <c r="V214" s="4">
-        <v>7.15</v>
+      <c r="V214" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W214" s="4">
         <v>-28.1</v>
@@ -43103,7 +43133,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="215" spans="1:56">
+    <row r="215" spans="1:56" s="10" customFormat="1">
       <c r="A215" s="4" t="s">
         <v>254</v>
       </c>
@@ -43167,8 +43197,8 @@
       <c r="U215" s="4">
         <v>2.76</v>
       </c>
-      <c r="V215" s="4">
-        <v>7.15</v>
+      <c r="V215" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W215" s="4">
         <v>-28.1</v>
@@ -43273,7 +43303,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="216" spans="1:56">
+    <row r="216" spans="1:56" s="10" customFormat="1">
       <c r="A216" s="4" t="s">
         <v>255</v>
       </c>
@@ -43337,8 +43367,8 @@
       <c r="U216" s="4">
         <v>2.76</v>
       </c>
-      <c r="V216" s="4">
-        <v>7.15</v>
+      <c r="V216" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W216" s="4">
         <v>-28.1</v>
@@ -43443,7 +43473,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="217" spans="1:56">
+    <row r="217" spans="1:56" s="10" customFormat="1">
       <c r="A217" s="4" t="s">
         <v>256</v>
       </c>
@@ -43507,8 +43537,8 @@
       <c r="U217" s="4">
         <v>14.2645</v>
       </c>
-      <c r="V217" s="4">
-        <v>8.15</v>
+      <c r="V217" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W217" s="4">
         <v>-83.8</v>
@@ -43613,7 +43643,7 @@
         <v>588.12</v>
       </c>
     </row>
-    <row r="218" spans="1:56">
+    <row r="218" spans="1:56" s="10" customFormat="1">
       <c r="A218" s="4" t="s">
         <v>257</v>
       </c>
@@ -43677,8 +43707,8 @@
       <c r="U218" s="4">
         <v>14.2645</v>
       </c>
-      <c r="V218" s="4">
-        <v>8.15</v>
+      <c r="V218" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W218" s="4">
         <v>-83.8</v>
@@ -43783,7 +43813,7 @@
         <v>588.12</v>
       </c>
     </row>
-    <row r="219" spans="1:56">
+    <row r="219" spans="1:56" s="10" customFormat="1">
       <c r="A219" s="4" t="s">
         <v>258</v>
       </c>
@@ -43847,8 +43877,8 @@
       <c r="U219" s="4">
         <v>2.76</v>
       </c>
-      <c r="V219" s="4">
-        <v>7.15</v>
+      <c r="V219" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W219" s="4">
         <v>-28.1</v>
@@ -43953,7 +43983,7 @@
         <v>9.8800000000000008</v>
       </c>
     </row>
-    <row r="220" spans="1:56">
+    <row r="220" spans="1:56" s="10" customFormat="1">
       <c r="A220" s="4" t="s">
         <v>259</v>
       </c>
@@ -44017,8 +44047,8 @@
       <c r="U220" s="4">
         <v>2.76</v>
       </c>
-      <c r="V220" s="4">
-        <v>7.15</v>
+      <c r="V220" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W220" s="4">
         <v>-28.1</v>
@@ -44123,7 +44153,7 @@
         <v>9.8800000000000008</v>
       </c>
     </row>
-    <row r="221" spans="1:56">
+    <row r="221" spans="1:56" s="10" customFormat="1">
       <c r="A221" s="4" t="s">
         <v>260</v>
       </c>
@@ -44157,6 +44187,7 @@
       <c r="K221" s="4">
         <v>2</v>
       </c>
+      <c r="L221" s="4"/>
       <c r="M221" s="4">
         <v>22.1</v>
       </c>
@@ -44184,8 +44215,8 @@
       <c r="U221" s="4">
         <v>2.8071999999999999</v>
       </c>
-      <c r="V221" s="4">
-        <v>7.57</v>
+      <c r="V221" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W221" s="4">
         <v>-52.7</v>
@@ -44290,7 +44321,7 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="222" spans="1:56">
+    <row r="222" spans="1:56" s="10" customFormat="1">
       <c r="A222" s="4" t="s">
         <v>261</v>
       </c>
@@ -44354,8 +44385,8 @@
       <c r="U222" s="4">
         <v>2.8071999999999999</v>
       </c>
-      <c r="V222" s="4">
-        <v>7.57</v>
+      <c r="V222" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W222" s="4">
         <v>-52.7</v>
@@ -44460,7 +44491,7 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="223" spans="1:56">
+    <row r="223" spans="1:56" s="10" customFormat="1">
       <c r="A223" s="4" t="s">
         <v>262</v>
       </c>
@@ -44524,8 +44555,8 @@
       <c r="U223" s="4">
         <v>2.8071999999999999</v>
       </c>
-      <c r="V223" s="4">
-        <v>7.57</v>
+      <c r="V223" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W223" s="4">
         <v>-52.7</v>
@@ -44630,7 +44661,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="224" spans="1:56">
+    <row r="224" spans="1:56" s="10" customFormat="1">
       <c r="A224" s="4" t="s">
         <v>263</v>
       </c>
@@ -44694,8 +44725,8 @@
       <c r="U224" s="4">
         <v>2.8071999999999999</v>
       </c>
-      <c r="V224" s="4">
-        <v>7.57</v>
+      <c r="V224" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W224" s="4">
         <v>-52.7</v>
@@ -44800,7 +44831,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="225" spans="1:56">
+    <row r="225" spans="1:56" s="10" customFormat="1">
       <c r="A225" s="4" t="s">
         <v>264</v>
       </c>
@@ -44864,8 +44895,8 @@
       <c r="U225" s="4">
         <v>28.1205</v>
       </c>
-      <c r="V225" s="4">
-        <v>7.56</v>
+      <c r="V225" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W225" s="4">
         <v>-49.3</v>
@@ -44970,7 +45001,7 @@
         <v>116.47</v>
       </c>
     </row>
-    <row r="226" spans="1:56">
+    <row r="226" spans="1:56" s="10" customFormat="1">
       <c r="A226" s="4" t="s">
         <v>265</v>
       </c>
@@ -45034,8 +45065,8 @@
       <c r="U226" s="4">
         <v>28.1205</v>
       </c>
-      <c r="V226" s="4">
-        <v>7.56</v>
+      <c r="V226" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W226" s="4">
         <v>-49.3</v>
@@ -45140,7 +45171,7 @@
         <v>116.47</v>
       </c>
     </row>
-    <row r="227" spans="1:56">
+    <row r="227" spans="1:56" s="10" customFormat="1">
       <c r="A227" s="4" t="s">
         <v>266</v>
       </c>
@@ -45204,8 +45235,8 @@
       <c r="U227" s="4">
         <v>2.8071999999999999</v>
       </c>
-      <c r="V227" s="4">
-        <v>7.57</v>
+      <c r="V227" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W227" s="4">
         <v>-52.7</v>
@@ -45310,7 +45341,7 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="228" spans="1:56">
+    <row r="228" spans="1:56" s="10" customFormat="1">
       <c r="A228" s="4" t="s">
         <v>267</v>
       </c>
@@ -45374,8 +45405,8 @@
       <c r="U228" s="4">
         <v>2.8071999999999999</v>
       </c>
-      <c r="V228" s="4">
-        <v>7.57</v>
+      <c r="V228" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W228" s="4">
         <v>-52.7</v>
@@ -45517,14 +45548,14 @@
       <c r="L229" s="4">
         <v>24.11</v>
       </c>
-      <c r="M229" s="4">
-        <v>386.15</v>
-      </c>
-      <c r="N229" s="4">
-        <v>393.45</v>
-      </c>
-      <c r="O229" s="4">
-        <v>392.75</v>
+      <c r="M229" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N229" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="O229" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="P229" s="4">
         <v>255</v>
@@ -45544,8 +45575,8 @@
       <c r="U229" s="4">
         <v>3.5179999999999998</v>
       </c>
-      <c r="V229" s="4">
-        <v>8.4600000000000009</v>
+      <c r="V229" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W229" s="4">
         <v>-103.7</v>
@@ -45559,11 +45590,11 @@
       <c r="Z229" s="4">
         <v>736.4</v>
       </c>
-      <c r="AA229" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="AB229" s="4">
-        <v>2.74</v>
+      <c r="AA229" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB229" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="AC229" s="10">
         <v>2.3199999999999998</v>
@@ -45687,14 +45718,14 @@
       <c r="L230" s="4">
         <v>24.11</v>
       </c>
-      <c r="M230" s="4">
-        <v>386.15</v>
-      </c>
-      <c r="N230" s="4">
-        <v>393.45</v>
-      </c>
-      <c r="O230" s="4">
-        <v>392.75</v>
+      <c r="M230" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N230" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="O230" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="P230" s="4">
         <v>255</v>
@@ -45714,8 +45745,8 @@
       <c r="U230" s="4">
         <v>3.5179999999999998</v>
       </c>
-      <c r="V230" s="4">
-        <v>8.4600000000000009</v>
+      <c r="V230" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W230" s="4">
         <v>-103.7</v>
@@ -45729,11 +45760,11 @@
       <c r="Z230" s="4">
         <v>736.4</v>
       </c>
-      <c r="AA230" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="AB230" s="4">
-        <v>2.74</v>
+      <c r="AA230" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB230" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="AC230" s="10">
         <v>2.3199999999999998</v>
@@ -45857,14 +45888,14 @@
       <c r="L231" s="4">
         <v>24.11</v>
       </c>
-      <c r="M231" s="4">
-        <v>386.15</v>
-      </c>
-      <c r="N231" s="4">
-        <v>393.45</v>
-      </c>
-      <c r="O231" s="4">
-        <v>392.75</v>
+      <c r="M231" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N231" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="O231" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="P231" s="4">
         <v>255</v>
@@ -45884,8 +45915,8 @@
       <c r="U231" s="4">
         <v>3.5179999999999998</v>
       </c>
-      <c r="V231" s="4">
-        <v>8.4600000000000009</v>
+      <c r="V231" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W231" s="4">
         <v>-103.7</v>
@@ -45899,11 +45930,11 @@
       <c r="Z231" s="4">
         <v>736.4</v>
       </c>
-      <c r="AA231" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="AB231" s="4">
-        <v>2.74</v>
+      <c r="AA231" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB231" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="AC231" s="10">
         <v>2.36</v>
@@ -46027,14 +46058,14 @@
       <c r="L232" s="4">
         <v>24.11</v>
       </c>
-      <c r="M232" s="4">
-        <v>386.15</v>
-      </c>
-      <c r="N232" s="4">
-        <v>393.45</v>
-      </c>
-      <c r="O232" s="4">
-        <v>392.75</v>
+      <c r="M232" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N232" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="O232" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="P232" s="4">
         <v>255</v>
@@ -46054,8 +46085,8 @@
       <c r="U232" s="4">
         <v>3.5179999999999998</v>
       </c>
-      <c r="V232" s="4">
-        <v>8.4600000000000009</v>
+      <c r="V232" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W232" s="4">
         <v>-103.7</v>
@@ -46069,11 +46100,11 @@
       <c r="Z232" s="4">
         <v>736.4</v>
       </c>
-      <c r="AA232" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="AB232" s="4">
-        <v>2.74</v>
+      <c r="AA232" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB232" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="AC232" s="10">
         <v>2.36</v>
@@ -46197,14 +46228,14 @@
       <c r="L233" s="4">
         <v>15.882999999999999</v>
       </c>
-      <c r="M233" s="4">
-        <v>382.25</v>
-      </c>
-      <c r="N233" s="4">
-        <v>469.6</v>
-      </c>
-      <c r="O233" s="4">
-        <v>462.7</v>
+      <c r="M233" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N233" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="O233" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="P233" s="4">
         <v>301</v>
@@ -46224,8 +46255,8 @@
       <c r="U233" s="4">
         <v>18.462</v>
       </c>
-      <c r="V233" s="4">
-        <v>8.11</v>
+      <c r="V233" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W233" s="4">
         <v>-81.55</v>
@@ -46239,11 +46270,11 @@
       <c r="Z233" s="4">
         <v>736.3</v>
       </c>
-      <c r="AA233" s="4">
-        <v>1.18</v>
-      </c>
-      <c r="AB233" s="4">
-        <v>5.07</v>
+      <c r="AA233" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB233" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="AC233" s="10">
         <v>8.56</v>
@@ -46367,14 +46398,14 @@
       <c r="L234" s="4">
         <v>15.882999999999999</v>
       </c>
-      <c r="M234" s="4">
-        <v>382.25</v>
-      </c>
-      <c r="N234" s="4">
-        <v>469.6</v>
-      </c>
-      <c r="O234" s="4">
-        <v>462.7</v>
+      <c r="M234" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N234" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="O234" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="P234" s="4">
         <v>301</v>
@@ -46394,8 +46425,8 @@
       <c r="U234" s="4">
         <v>18.462</v>
       </c>
-      <c r="V234" s="4">
-        <v>8.11</v>
+      <c r="V234" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W234" s="4">
         <v>-81.55</v>
@@ -46409,11 +46440,11 @@
       <c r="Z234" s="4">
         <v>736.3</v>
       </c>
-      <c r="AA234" s="4">
-        <v>1.18</v>
-      </c>
-      <c r="AB234" s="4">
-        <v>5.07</v>
+      <c r="AA234" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB234" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="AC234" s="10">
         <v>8.56</v>
@@ -46537,14 +46568,14 @@
       <c r="L235" s="4">
         <v>24.11</v>
       </c>
-      <c r="M235" s="4">
-        <v>386.15</v>
-      </c>
-      <c r="N235" s="4">
-        <v>393.45</v>
-      </c>
-      <c r="O235" s="4">
-        <v>392.75</v>
+      <c r="M235" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N235" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="O235" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="P235" s="4">
         <v>255</v>
@@ -46564,8 +46595,8 @@
       <c r="U235" s="4">
         <v>3.5179999999999998</v>
       </c>
-      <c r="V235" s="4">
-        <v>8.4600000000000009</v>
+      <c r="V235" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W235" s="4">
         <v>-103.7</v>
@@ -46579,11 +46610,11 @@
       <c r="Z235" s="4">
         <v>736.4</v>
       </c>
-      <c r="AA235" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="AB235" s="4">
-        <v>2.74</v>
+      <c r="AA235" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB235" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="AC235" s="10">
         <v>2.76</v>
@@ -46707,14 +46738,14 @@
       <c r="L236" s="4">
         <v>24.11</v>
       </c>
-      <c r="M236" s="4">
-        <v>386.15</v>
-      </c>
-      <c r="N236" s="4">
-        <v>393.45</v>
-      </c>
-      <c r="O236" s="4">
-        <v>392.75</v>
+      <c r="M236" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N236" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="O236" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="P236" s="4">
         <v>255</v>
@@ -46734,8 +46765,8 @@
       <c r="U236" s="4">
         <v>3.5179999999999998</v>
       </c>
-      <c r="V236" s="4">
-        <v>8.4600000000000009</v>
+      <c r="V236" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W236" s="4">
         <v>-103.7</v>
@@ -46749,11 +46780,11 @@
       <c r="Z236" s="4">
         <v>736.4</v>
       </c>
-      <c r="AA236" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="AB236" s="4">
-        <v>2.74</v>
+      <c r="AA236" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB236" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="AC236" s="10">
         <v>2.76</v>
@@ -46892,20 +46923,20 @@
       <c r="Q237" s="4">
         <v>0.01</v>
       </c>
-      <c r="R237" s="4">
-        <v>113.75</v>
-      </c>
-      <c r="S237" s="4">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="T237" s="4">
-        <v>116.675</v>
+      <c r="R237" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S237" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T237" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U237" s="4">
         <v>2.8287499999999999</v>
       </c>
-      <c r="V237" s="4">
-        <v>8.5</v>
+      <c r="V237" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W237" s="4">
         <v>-106.72499999999999</v>
@@ -47010,7 +47041,7 @@
         <v>17.82</v>
       </c>
     </row>
-    <row r="238" spans="1:56">
+    <row r="238" spans="1:56" s="10" customFormat="1">
       <c r="A238" s="4" t="s">
         <v>277</v>
       </c>
@@ -47062,20 +47093,20 @@
       <c r="Q238" s="4">
         <v>0.01</v>
       </c>
-      <c r="R238" s="4">
-        <v>113.75</v>
-      </c>
-      <c r="S238" s="4">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="T238" s="4">
-        <v>116.675</v>
+      <c r="R238" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S238" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T238" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U238" s="4">
         <v>2.8287499999999999</v>
       </c>
-      <c r="V238" s="4">
-        <v>8.5</v>
+      <c r="V238" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W238" s="4">
         <v>-106.72499999999999</v>
@@ -47180,7 +47211,7 @@
         <v>17.82</v>
       </c>
     </row>
-    <row r="239" spans="1:56">
+    <row r="239" spans="1:56" s="10" customFormat="1">
       <c r="A239" s="4" t="s">
         <v>278</v>
       </c>
@@ -47232,20 +47263,20 @@
       <c r="Q239" s="4">
         <v>0.01</v>
       </c>
-      <c r="R239" s="4">
-        <v>113.75</v>
-      </c>
-      <c r="S239" s="4">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="T239" s="4">
-        <v>116.675</v>
+      <c r="R239" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S239" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T239" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U239" s="4">
         <v>2.8287499999999999</v>
       </c>
-      <c r="V239" s="4">
-        <v>8.5</v>
+      <c r="V239" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W239" s="4">
         <v>-106.72499999999999</v>
@@ -47350,7 +47381,7 @@
         <v>19.829999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:56">
+    <row r="240" spans="1:56" s="10" customFormat="1">
       <c r="A240" s="4" t="s">
         <v>279</v>
       </c>
@@ -47402,20 +47433,20 @@
       <c r="Q240" s="4">
         <v>0.01</v>
       </c>
-      <c r="R240" s="4">
-        <v>113.75</v>
-      </c>
-      <c r="S240" s="4">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="T240" s="4">
-        <v>116.675</v>
+      <c r="R240" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S240" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T240" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U240" s="4">
         <v>2.8287499999999999</v>
       </c>
-      <c r="V240" s="4">
-        <v>8.5</v>
+      <c r="V240" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W240" s="4">
         <v>-106.72499999999999</v>
@@ -47520,7 +47551,7 @@
         <v>19.829999999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:56">
+    <row r="241" spans="1:56" s="10" customFormat="1">
       <c r="A241" s="4" t="s">
         <v>280</v>
       </c>
@@ -47572,20 +47603,20 @@
       <c r="Q241" s="4">
         <v>0.23669999999999999</v>
       </c>
-      <c r="R241" s="4">
-        <v>85.9</v>
-      </c>
-      <c r="S241" s="4">
-        <v>8.5566999999999993</v>
-      </c>
-      <c r="T241" s="4">
-        <v>88.13</v>
+      <c r="R241" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S241" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T241" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U241" s="4">
         <v>17.05</v>
       </c>
-      <c r="V241" s="4">
-        <v>8.2530000000000001</v>
+      <c r="V241" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W241" s="4">
         <v>-89.67</v>
@@ -47690,7 +47721,7 @@
         <v>441.76</v>
       </c>
     </row>
-    <row r="242" spans="1:56">
+    <row r="242" spans="1:56" s="10" customFormat="1">
       <c r="A242" s="4" t="s">
         <v>281</v>
       </c>
@@ -47742,20 +47773,20 @@
       <c r="Q242" s="4">
         <v>0.23669999999999999</v>
       </c>
-      <c r="R242" s="4">
-        <v>85.9</v>
-      </c>
-      <c r="S242" s="4">
-        <v>8.5566999999999993</v>
-      </c>
-      <c r="T242" s="4">
-        <v>88.13</v>
+      <c r="R242" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S242" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T242" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U242" s="4">
         <v>17.05</v>
       </c>
-      <c r="V242" s="4">
-        <v>8.2530000000000001</v>
+      <c r="V242" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W242" s="4">
         <v>-89.67</v>
@@ -47860,7 +47891,7 @@
         <v>441.76</v>
       </c>
     </row>
-    <row r="243" spans="1:56">
+    <row r="243" spans="1:56" s="10" customFormat="1">
       <c r="A243" s="4" t="s">
         <v>282</v>
       </c>
@@ -47912,20 +47943,20 @@
       <c r="Q243" s="4">
         <v>0.01</v>
       </c>
-      <c r="R243" s="4">
-        <v>113.75</v>
-      </c>
-      <c r="S243" s="4">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="T243" s="4">
-        <v>116.675</v>
+      <c r="R243" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S243" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T243" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U243" s="4">
         <v>2.8287499999999999</v>
       </c>
-      <c r="V243" s="4">
-        <v>8.5</v>
+      <c r="V243" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W243" s="4">
         <v>-106.72499999999999</v>
@@ -48030,7 +48061,7 @@
         <v>34.29</v>
       </c>
     </row>
-    <row r="244" spans="1:56">
+    <row r="244" spans="1:56" s="10" customFormat="1">
       <c r="A244" s="4" t="s">
         <v>283</v>
       </c>
@@ -48082,20 +48113,20 @@
       <c r="Q244" s="4">
         <v>0.01</v>
       </c>
-      <c r="R244" s="4">
-        <v>113.75</v>
-      </c>
-      <c r="S244" s="4">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="T244" s="4">
-        <v>116.675</v>
+      <c r="R244" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S244" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T244" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U244" s="4">
         <v>2.8287499999999999</v>
       </c>
-      <c r="V244" s="4">
-        <v>8.5</v>
+      <c r="V244" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W244" s="4">
         <v>-106.72499999999999</v>
@@ -48200,7 +48231,7 @@
         <v>34.29</v>
       </c>
     </row>
-    <row r="245" spans="1:56">
+    <row r="245" spans="1:56" s="10" customFormat="1">
       <c r="A245" s="4" t="s">
         <v>284</v>
       </c>
@@ -48264,8 +48295,8 @@
       <c r="U245" s="4">
         <v>2.8490000000000002</v>
       </c>
-      <c r="V245" s="4">
-        <v>8.5</v>
+      <c r="V245" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W245" s="4">
         <v>-106.9</v>
@@ -48370,7 +48401,7 @@
         <v>7.73</v>
       </c>
     </row>
-    <row r="246" spans="1:56">
+    <row r="246" spans="1:56" s="10" customFormat="1">
       <c r="A246" s="4" t="s">
         <v>285</v>
       </c>
@@ -48434,8 +48465,8 @@
       <c r="U246" s="4">
         <v>2.8490000000000002</v>
       </c>
-      <c r="V246" s="4">
-        <v>8.5</v>
+      <c r="V246" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W246" s="4">
         <v>-106.9</v>
@@ -48540,7 +48571,7 @@
         <v>7.73</v>
       </c>
     </row>
-    <row r="247" spans="1:56">
+    <row r="247" spans="1:56" s="10" customFormat="1">
       <c r="A247" s="4" t="s">
         <v>286</v>
       </c>
@@ -48604,8 +48635,8 @@
       <c r="U247" s="4">
         <v>2.8490000000000002</v>
       </c>
-      <c r="V247" s="4">
-        <v>8.5</v>
+      <c r="V247" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W247" s="4">
         <v>-106.9</v>
@@ -48710,7 +48741,7 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="248" spans="1:56">
+    <row r="248" spans="1:56" s="10" customFormat="1">
       <c r="A248" s="4" t="s">
         <v>287</v>
       </c>
@@ -48774,8 +48805,8 @@
       <c r="U248" s="4">
         <v>2.8490000000000002</v>
       </c>
-      <c r="V248" s="4">
-        <v>8.5</v>
+      <c r="V248" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W248" s="4">
         <v>-106.9</v>
@@ -48880,7 +48911,7 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="249" spans="1:56">
+    <row r="249" spans="1:56" s="10" customFormat="1">
       <c r="A249" s="4" t="s">
         <v>288</v>
       </c>
@@ -48941,8 +48972,9 @@
       <c r="T249" s="4">
         <v>24.4</v>
       </c>
-      <c r="V249" s="4">
-        <v>7.62</v>
+      <c r="U249" s="4"/>
+      <c r="V249" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W249" s="4">
         <v>-52.65</v>
@@ -49047,7 +49079,7 @@
         <v>296.23</v>
       </c>
     </row>
-    <row r="250" spans="1:56">
+    <row r="250" spans="1:56" s="10" customFormat="1">
       <c r="A250" s="4" t="s">
         <v>289</v>
       </c>
@@ -49108,8 +49140,9 @@
       <c r="T250" s="4">
         <v>24.4</v>
       </c>
-      <c r="V250" s="4">
-        <v>7.62</v>
+      <c r="U250" s="4"/>
+      <c r="V250" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W250" s="4">
         <v>-52.65</v>
@@ -49214,7 +49247,7 @@
         <v>296.23</v>
       </c>
     </row>
-    <row r="251" spans="1:56">
+    <row r="251" spans="1:56" s="10" customFormat="1">
       <c r="A251" s="4" t="s">
         <v>290</v>
       </c>
@@ -49278,8 +49311,8 @@
       <c r="U251" s="4">
         <v>2.8490000000000002</v>
       </c>
-      <c r="V251" s="4">
-        <v>8.5</v>
+      <c r="V251" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W251" s="4">
         <v>-106.9</v>
@@ -49384,7 +49417,7 @@
         <v>9.31</v>
       </c>
     </row>
-    <row r="252" spans="1:56">
+    <row r="252" spans="1:56" s="10" customFormat="1">
       <c r="A252" s="4" t="s">
         <v>291</v>
       </c>
@@ -49448,8 +49481,8 @@
       <c r="U252" s="4">
         <v>2.8490000000000002</v>
       </c>
-      <c r="V252" s="4">
-        <v>8.5</v>
+      <c r="V252" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W252" s="4">
         <v>-106.9</v>
@@ -49554,7 +49587,7 @@
         <v>9.31</v>
       </c>
     </row>
-    <row r="253" spans="1:56">
+    <row r="253" spans="1:56" s="10" customFormat="1">
       <c r="A253" s="4" t="s">
         <v>292</v>
       </c>
@@ -49618,8 +49651,8 @@
       <c r="U253" s="4">
         <v>2.8713000000000002</v>
       </c>
-      <c r="V253" s="4">
-        <v>7.57</v>
+      <c r="V253" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W253" s="4">
         <v>-56.23</v>
@@ -49633,11 +49666,11 @@
       <c r="Z253" s="4">
         <v>739.5</v>
       </c>
-      <c r="AA253" s="4">
-        <v>4.1669999999999999E-2</v>
-      </c>
-      <c r="AB253" s="4">
-        <v>0.16</v>
+      <c r="AA253" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB253" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="AC253" s="10">
         <v>3.52</v>
@@ -49724,7 +49757,7 @@
         <v>14.66</v>
       </c>
     </row>
-    <row r="254" spans="1:56">
+    <row r="254" spans="1:56" s="10" customFormat="1">
       <c r="A254" s="4" t="s">
         <v>293</v>
       </c>
@@ -49788,8 +49821,8 @@
       <c r="U254" s="4">
         <v>2.8713000000000002</v>
       </c>
-      <c r="V254" s="4">
-        <v>7.57</v>
+      <c r="V254" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W254" s="4">
         <v>-56.23</v>
@@ -49803,11 +49836,11 @@
       <c r="Z254" s="4">
         <v>739.5</v>
       </c>
-      <c r="AA254" s="4">
-        <v>4.1669999999999999E-2</v>
-      </c>
-      <c r="AB254" s="4">
-        <v>0.16</v>
+      <c r="AA254" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB254" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="AC254" s="10">
         <v>3.52</v>
@@ -49894,7 +49927,7 @@
         <v>14.66</v>
       </c>
     </row>
-    <row r="255" spans="1:56">
+    <row r="255" spans="1:56" s="10" customFormat="1">
       <c r="A255" s="4" t="s">
         <v>294</v>
       </c>
@@ -49958,8 +49991,8 @@
       <c r="U255" s="4">
         <v>2.8713000000000002</v>
       </c>
-      <c r="V255" s="4">
-        <v>7.57</v>
+      <c r="V255" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W255" s="4">
         <v>-56.23</v>
@@ -49973,11 +50006,11 @@
       <c r="Z255" s="4">
         <v>739.5</v>
       </c>
-      <c r="AA255" s="4">
-        <v>4.1669999999999999E-2</v>
-      </c>
-      <c r="AB255" s="4">
-        <v>0.16</v>
+      <c r="AA255" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB255" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="AC255" s="10">
         <v>3.64</v>
@@ -50064,7 +50097,7 @@
         <v>222.6</v>
       </c>
     </row>
-    <row r="256" spans="1:56">
+    <row r="256" spans="1:56" s="10" customFormat="1">
       <c r="A256" s="4" t="s">
         <v>295</v>
       </c>
@@ -50128,8 +50161,8 @@
       <c r="U256" s="4">
         <v>2.8713000000000002</v>
       </c>
-      <c r="V256" s="4">
-        <v>7.57</v>
+      <c r="V256" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W256" s="4">
         <v>-56.23</v>
@@ -50143,11 +50176,11 @@
       <c r="Z256" s="4">
         <v>739.5</v>
       </c>
-      <c r="AA256" s="4">
-        <v>4.1669999999999999E-2</v>
-      </c>
-      <c r="AB256" s="4">
-        <v>0.16</v>
+      <c r="AA256" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB256" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="AC256" s="10">
         <v>3.64</v>
@@ -50234,7 +50267,7 @@
         <v>222.6</v>
       </c>
     </row>
-    <row r="257" spans="1:56">
+    <row r="257" spans="1:56" s="10" customFormat="1">
       <c r="A257" s="4" t="s">
         <v>296</v>
       </c>
@@ -50298,8 +50331,8 @@
       <c r="U257" s="4">
         <v>7.1395</v>
       </c>
-      <c r="V257" s="4">
-        <v>8.34</v>
+      <c r="V257" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W257" s="4">
         <v>-98.674999999999997</v>
@@ -50313,11 +50346,11 @@
       <c r="Z257" s="4">
         <v>739.4</v>
       </c>
-      <c r="AA257" s="4">
-        <v>1.4924999999999999</v>
-      </c>
-      <c r="AB257" s="4">
-        <v>6.4175000000000004</v>
+      <c r="AA257" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB257" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="AC257" s="10">
         <v>4.95</v>
@@ -50404,7 +50437,7 @@
         <v>216.38</v>
       </c>
     </row>
-    <row r="258" spans="1:56">
+    <row r="258" spans="1:56" s="10" customFormat="1">
       <c r="A258" s="4" t="s">
         <v>297</v>
       </c>
@@ -50468,8 +50501,8 @@
       <c r="U258" s="4">
         <v>7.1395</v>
       </c>
-      <c r="V258" s="6">
-        <v>8.34</v>
+      <c r="V258" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W258" s="4">
         <v>-98.674999999999997</v>
@@ -50483,11 +50516,11 @@
       <c r="Z258" s="4">
         <v>739.4</v>
       </c>
-      <c r="AA258" s="4">
-        <v>1.4924999999999999</v>
-      </c>
-      <c r="AB258" s="4">
-        <v>6.4175000000000004</v>
+      <c r="AA258" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB258" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="AC258" s="10">
         <v>4.95</v>
@@ -50574,7 +50607,7 @@
         <v>216.38</v>
       </c>
     </row>
-    <row r="259" spans="1:56">
+    <row r="259" spans="1:56" s="10" customFormat="1">
       <c r="A259" s="4" t="s">
         <v>298</v>
       </c>
@@ -50638,8 +50671,8 @@
       <c r="U259" s="4">
         <v>2.8713000000000002</v>
       </c>
-      <c r="V259" s="4">
-        <v>7.57</v>
+      <c r="V259" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W259" s="4">
         <v>-56.23</v>
@@ -50653,11 +50686,11 @@
       <c r="Z259" s="4">
         <v>739.5</v>
       </c>
-      <c r="AA259" s="4">
-        <v>4.1669999999999999E-2</v>
-      </c>
-      <c r="AB259" s="4">
-        <v>0.16</v>
+      <c r="AA259" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB259" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="AC259" s="10">
         <v>4.2699999999999996</v>
@@ -50744,7 +50777,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="260" spans="1:56">
+    <row r="260" spans="1:56" s="10" customFormat="1">
       <c r="A260" s="4" t="s">
         <v>299</v>
       </c>
@@ -50808,8 +50841,8 @@
       <c r="U260" s="4">
         <v>2.8713000000000002</v>
       </c>
-      <c r="V260" s="4">
-        <v>7.57</v>
+      <c r="V260" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W260" s="4">
         <v>-56.23</v>
@@ -50823,11 +50856,11 @@
       <c r="Z260" s="4">
         <v>739.5</v>
       </c>
-      <c r="AA260" s="4">
-        <v>4.1669999999999999E-2</v>
-      </c>
-      <c r="AB260" s="4">
-        <v>0.16</v>
+      <c r="AA260" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB260" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="AC260" s="10">
         <v>4.2699999999999996</v>
@@ -50914,7 +50947,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="261" spans="1:56">
+    <row r="261" spans="1:56" s="10" customFormat="1">
       <c r="A261" s="4" t="s">
         <v>300</v>
       </c>
@@ -50966,20 +50999,20 @@
       <c r="Q261" s="4">
         <v>0.01</v>
       </c>
-      <c r="R261" s="4">
-        <v>114.25</v>
-      </c>
-      <c r="S261" s="4">
-        <v>9.6</v>
-      </c>
-      <c r="T261" s="4">
-        <v>117.35</v>
+      <c r="R261" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S261" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T261" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U261" s="4">
         <v>2.8515000000000001</v>
       </c>
-      <c r="V261" s="4">
-        <v>7.77</v>
+      <c r="V261" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W261" s="4">
         <v>-66.599999999999994</v>
@@ -51084,7 +51117,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="262" spans="1:56">
+    <row r="262" spans="1:56" s="10" customFormat="1">
       <c r="A262" s="4" t="s">
         <v>301</v>
       </c>
@@ -51136,20 +51169,20 @@
       <c r="Q262" s="4">
         <v>0.01</v>
       </c>
-      <c r="R262" s="4">
-        <v>114.25</v>
-      </c>
-      <c r="S262" s="4">
-        <v>9.6</v>
-      </c>
-      <c r="T262" s="4">
-        <v>117.35</v>
+      <c r="R262" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S262" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T262" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U262" s="4">
         <v>2.8515000000000001</v>
       </c>
-      <c r="V262" s="4">
-        <v>7.77</v>
+      <c r="V262" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W262" s="4">
         <v>-66.599999999999994</v>
@@ -51254,7 +51287,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="263" spans="1:56">
+    <row r="263" spans="1:56" s="10" customFormat="1">
       <c r="A263" s="4" t="s">
         <v>302</v>
       </c>
@@ -51306,20 +51339,20 @@
       <c r="Q263" s="4">
         <v>0.01</v>
       </c>
-      <c r="R263" s="4">
-        <v>114.25</v>
-      </c>
-      <c r="S263" s="4">
-        <v>9.6</v>
-      </c>
-      <c r="T263" s="4">
-        <v>117.35</v>
+      <c r="R263" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S263" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T263" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U263" s="4">
         <v>2.8515000000000001</v>
       </c>
-      <c r="V263" s="4">
-        <v>7.77</v>
+      <c r="V263" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W263" s="4">
         <v>-66.599999999999994</v>
@@ -51424,7 +51457,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="264" spans="1:56">
+    <row r="264" spans="1:56" s="10" customFormat="1">
       <c r="A264" s="4" t="s">
         <v>303</v>
       </c>
@@ -51476,20 +51509,20 @@
       <c r="Q264" s="4">
         <v>0.01</v>
       </c>
-      <c r="R264" s="4">
-        <v>114.25</v>
-      </c>
-      <c r="S264" s="4">
-        <v>9.6</v>
-      </c>
-      <c r="T264" s="4">
-        <v>117.35</v>
+      <c r="R264" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S264" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T264" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U264" s="4">
         <v>2.8515000000000001</v>
       </c>
-      <c r="V264" s="4">
-        <v>7.77</v>
+      <c r="V264" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W264" s="4">
         <v>-66.599999999999994</v>
@@ -51594,7 +51627,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="265" spans="1:56">
+    <row r="265" spans="1:56" s="10" customFormat="1">
       <c r="A265" s="4" t="s">
         <v>304</v>
       </c>
@@ -51646,20 +51679,20 @@
       <c r="Q265" s="4">
         <v>0.01</v>
       </c>
-      <c r="R265" s="4">
-        <v>126.5</v>
-      </c>
-      <c r="S265" s="4">
-        <v>10.545</v>
-      </c>
-      <c r="T265" s="4">
-        <v>129.9</v>
+      <c r="R265" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S265" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T265" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U265" s="4">
         <v>12.5275</v>
       </c>
-      <c r="V265" s="4">
-        <v>8.23</v>
+      <c r="V265" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W265" s="4">
         <v>-93.4</v>
@@ -51764,7 +51797,7 @@
         <v>81.48</v>
       </c>
     </row>
-    <row r="266" spans="1:56">
+    <row r="266" spans="1:56" s="10" customFormat="1">
       <c r="A266" s="4" t="s">
         <v>305</v>
       </c>
@@ -51816,20 +51849,20 @@
       <c r="Q266" s="4">
         <v>0.01</v>
       </c>
-      <c r="R266" s="4">
-        <v>126.5</v>
-      </c>
-      <c r="S266" s="4">
-        <v>10.545</v>
-      </c>
-      <c r="T266" s="4">
-        <v>129.9</v>
+      <c r="R266" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S266" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T266" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U266" s="4">
         <v>12.5275</v>
       </c>
-      <c r="V266" s="4">
-        <v>8.23</v>
+      <c r="V266" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W266" s="4">
         <v>-93.4</v>
@@ -51934,7 +51967,7 @@
         <v>81.48</v>
       </c>
     </row>
-    <row r="267" spans="1:56">
+    <row r="267" spans="1:56" s="10" customFormat="1">
       <c r="A267" s="4" t="s">
         <v>306</v>
       </c>
@@ -51986,20 +52019,20 @@
       <c r="Q267" s="4">
         <v>0.01</v>
       </c>
-      <c r="R267" s="4">
-        <v>114.25</v>
-      </c>
-      <c r="S267" s="4">
-        <v>9.6</v>
-      </c>
-      <c r="T267" s="4">
-        <v>117.35</v>
+      <c r="R267" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S267" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T267" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U267" s="4">
         <v>2.8515000000000001</v>
       </c>
-      <c r="V267" s="4">
-        <v>7.77</v>
+      <c r="V267" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W267" s="4">
         <v>-66.599999999999994</v>
@@ -52104,7 +52137,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="268" spans="1:56">
+    <row r="268" spans="1:56" s="10" customFormat="1">
       <c r="A268" s="4" t="s">
         <v>307</v>
       </c>
@@ -52156,20 +52189,20 @@
       <c r="Q268" s="4">
         <v>0.01</v>
       </c>
-      <c r="R268" s="4">
-        <v>114.25</v>
-      </c>
-      <c r="S268" s="4">
-        <v>9.6</v>
-      </c>
-      <c r="T268" s="4">
-        <v>117.35</v>
+      <c r="R268" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S268" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T268" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U268" s="4">
         <v>2.8515000000000001</v>
       </c>
-      <c r="V268" s="4">
-        <v>7.77</v>
+      <c r="V268" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W268" s="4">
         <v>-66.599999999999994</v>
@@ -52274,7 +52307,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="269" spans="1:56">
+    <row r="269" spans="1:56" s="10" customFormat="1">
       <c r="A269" s="4" t="s">
         <v>308</v>
       </c>
@@ -52338,8 +52371,8 @@
       <c r="U269" s="6">
         <v>2.8319999999999999</v>
       </c>
-      <c r="V269" s="6">
-        <v>7.24</v>
+      <c r="V269" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W269" s="6">
         <v>-36.299999999999997</v>
@@ -52444,7 +52477,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="270" spans="1:56">
+    <row r="270" spans="1:56" s="10" customFormat="1">
       <c r="A270" s="4" t="s">
         <v>309</v>
       </c>
@@ -52508,8 +52541,8 @@
       <c r="U270" s="6">
         <v>2.8319999999999999</v>
       </c>
-      <c r="V270" s="6">
-        <v>7.24</v>
+      <c r="V270" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W270" s="6">
         <v>-36.299999999999997</v>
@@ -52614,7 +52647,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="271" spans="1:56">
+    <row r="271" spans="1:56" s="10" customFormat="1">
       <c r="A271" s="4" t="s">
         <v>310</v>
       </c>
@@ -52678,8 +52711,8 @@
       <c r="U271" s="6">
         <v>2.8319999999999999</v>
       </c>
-      <c r="V271" s="6">
-        <v>7.24</v>
+      <c r="V271" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W271" s="6">
         <v>-36.299999999999997</v>
@@ -52784,7 +52817,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="272" spans="1:56">
+    <row r="272" spans="1:56" s="10" customFormat="1">
       <c r="A272" s="4" t="s">
         <v>311</v>
       </c>
@@ -52848,8 +52881,8 @@
       <c r="U272" s="6">
         <v>2.8319999999999999</v>
       </c>
-      <c r="V272" s="6">
-        <v>7.24</v>
+      <c r="V272" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W272" s="6">
         <v>-36.299999999999997</v>
@@ -52954,7 +52987,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="273" spans="1:56">
+    <row r="273" spans="1:56" s="10" customFormat="1">
       <c r="A273" s="4" t="s">
         <v>312</v>
       </c>
@@ -53018,8 +53051,8 @@
       <c r="U273" s="4">
         <v>15.654</v>
       </c>
-      <c r="V273" s="4">
-        <v>8.26</v>
+      <c r="V273" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W273" s="4">
         <v>-93.5</v>
@@ -53124,7 +53157,7 @@
         <v>105.29</v>
       </c>
     </row>
-    <row r="274" spans="1:56">
+    <row r="274" spans="1:56" s="10" customFormat="1">
       <c r="A274" s="4" t="s">
         <v>313</v>
       </c>
@@ -53188,8 +53221,8 @@
       <c r="U274" s="4">
         <v>15.654</v>
       </c>
-      <c r="V274" s="4">
-        <v>8.26</v>
+      <c r="V274" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W274" s="4">
         <v>-93.5</v>
@@ -53294,7 +53327,7 @@
         <v>105.29</v>
       </c>
     </row>
-    <row r="275" spans="1:56">
+    <row r="275" spans="1:56" s="10" customFormat="1">
       <c r="A275" s="4" t="s">
         <v>314</v>
       </c>
@@ -53358,8 +53391,8 @@
       <c r="U275" s="6">
         <v>2.8319999999999999</v>
       </c>
-      <c r="V275" s="6">
-        <v>7.24</v>
+      <c r="V275" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W275" s="6">
         <v>-36.299999999999997</v>
@@ -53464,7 +53497,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="276" spans="1:56">
+    <row r="276" spans="1:56" s="10" customFormat="1">
       <c r="A276" s="4" t="s">
         <v>315</v>
       </c>
@@ -53528,8 +53561,8 @@
       <c r="U276" s="6">
         <v>2.8319999999999999</v>
       </c>
-      <c r="V276" s="6">
-        <v>7.24</v>
+      <c r="V276" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W276" s="6">
         <v>-36.299999999999997</v>
@@ -53634,7 +53667,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="277" spans="1:56">
+    <row r="277" spans="1:56" s="10" customFormat="1">
       <c r="A277" s="4" t="s">
         <v>316</v>
       </c>
@@ -53686,20 +53719,20 @@
       <c r="Q277" s="6">
         <v>0</v>
       </c>
-      <c r="R277" s="4">
-        <v>119.35</v>
-      </c>
-      <c r="S277" s="4">
-        <v>9.52</v>
-      </c>
-      <c r="T277" s="4">
-        <v>122.75</v>
+      <c r="R277" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S277" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T277" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U277" s="4">
         <v>2.9005000000000001</v>
       </c>
-      <c r="V277" s="4">
-        <v>8.0299999999999994</v>
+      <c r="V277" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W277" s="4">
         <v>-82.167000000000002</v>
@@ -53804,7 +53837,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:56">
+    <row r="278" spans="1:56" s="10" customFormat="1">
       <c r="A278" s="4" t="s">
         <v>317</v>
       </c>
@@ -53856,20 +53889,20 @@
       <c r="Q278" s="4">
         <v>0</v>
       </c>
-      <c r="R278" s="4">
-        <v>119.35</v>
-      </c>
-      <c r="S278" s="4">
-        <v>9.52</v>
-      </c>
-      <c r="T278" s="4">
-        <v>122.75</v>
+      <c r="R278" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S278" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T278" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U278" s="4">
         <v>2.9005000000000001</v>
       </c>
-      <c r="V278" s="4">
-        <v>8.0299999999999994</v>
+      <c r="V278" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W278" s="4">
         <v>-82.167000000000002</v>
@@ -53974,7 +54007,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:56">
+    <row r="279" spans="1:56" s="10" customFormat="1">
       <c r="A279" s="4" t="s">
         <v>318</v>
       </c>
@@ -54026,20 +54059,20 @@
       <c r="Q279" s="4">
         <v>0</v>
       </c>
-      <c r="R279" s="4">
-        <v>119.35</v>
-      </c>
-      <c r="S279" s="4">
-        <v>9.52</v>
-      </c>
-      <c r="T279" s="4">
-        <v>122.75</v>
+      <c r="R279" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S279" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T279" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U279" s="4">
         <v>2.9005000000000001</v>
       </c>
-      <c r="V279" s="4">
-        <v>8.0299999999999994</v>
+      <c r="V279" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W279" s="4">
         <v>-82.167000000000002</v>
@@ -54144,7 +54177,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="280" spans="1:56">
+    <row r="280" spans="1:56" s="10" customFormat="1">
       <c r="A280" s="4" t="s">
         <v>319</v>
       </c>
@@ -54196,20 +54229,20 @@
       <c r="Q280" s="4">
         <v>0</v>
       </c>
-      <c r="R280" s="4">
-        <v>119.35</v>
-      </c>
-      <c r="S280" s="4">
-        <v>9.52</v>
-      </c>
-      <c r="T280" s="4">
-        <v>122.75</v>
+      <c r="R280" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S280" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T280" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U280" s="4">
         <v>2.9005000000000001</v>
       </c>
-      <c r="V280" s="4">
-        <v>8.0299999999999994</v>
+      <c r="V280" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W280" s="4">
         <v>-82.167000000000002</v>
@@ -54314,7 +54347,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="281" spans="1:56">
+    <row r="281" spans="1:56" s="10" customFormat="1">
       <c r="A281" s="4" t="s">
         <v>320</v>
       </c>
@@ -54366,20 +54399,20 @@
       <c r="Q281" s="4">
         <v>0.09</v>
       </c>
-      <c r="R281" s="4">
-        <v>57.86</v>
-      </c>
-      <c r="S281" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="T281" s="4">
-        <v>59.5</v>
+      <c r="R281" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S281" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T281" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U281" s="4">
         <v>10.628399999999999</v>
       </c>
-      <c r="V281" s="4">
-        <v>7.9939999999999998</v>
+      <c r="V281" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W281" s="4">
         <v>-78.459999999999994</v>
@@ -54484,7 +54517,7 @@
         <v>249.87</v>
       </c>
     </row>
-    <row r="282" spans="1:56">
+    <row r="282" spans="1:56" s="10" customFormat="1">
       <c r="A282" s="4" t="s">
         <v>321</v>
       </c>
@@ -54536,20 +54569,20 @@
       <c r="Q282" s="4">
         <v>0.09</v>
       </c>
-      <c r="R282" s="4">
-        <v>57.86</v>
-      </c>
-      <c r="S282" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="T282" s="4">
-        <v>59.5</v>
+      <c r="R282" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S282" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T282" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U282" s="4">
         <v>10.628399999999999</v>
       </c>
-      <c r="V282" s="4">
-        <v>7.9939999999999998</v>
+      <c r="V282" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W282" s="4">
         <v>-78.459999999999994</v>
@@ -54654,7 +54687,7 @@
         <v>249.87</v>
       </c>
     </row>
-    <row r="283" spans="1:56">
+    <row r="283" spans="1:56" s="10" customFormat="1">
       <c r="A283" s="4" t="s">
         <v>322</v>
       </c>
@@ -54706,20 +54739,20 @@
       <c r="Q283" s="4">
         <v>0</v>
       </c>
-      <c r="R283" s="4">
-        <v>119.35</v>
-      </c>
-      <c r="S283" s="4">
-        <v>9.52</v>
-      </c>
-      <c r="T283" s="4">
-        <v>122.75</v>
+      <c r="R283" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S283" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T283" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U283" s="4">
         <v>2.9005000000000001</v>
       </c>
-      <c r="V283" s="4">
-        <v>8.0299999999999994</v>
+      <c r="V283" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W283" s="4">
         <v>-82.167000000000002</v>
@@ -54824,7 +54857,7 @@
         <v>8.43</v>
       </c>
     </row>
-    <row r="284" spans="1:56">
+    <row r="284" spans="1:56" s="10" customFormat="1">
       <c r="A284" s="4" t="s">
         <v>323</v>
       </c>
@@ -54876,20 +54909,20 @@
       <c r="Q284" s="4">
         <v>0</v>
       </c>
-      <c r="R284" s="4">
-        <v>119.35</v>
-      </c>
-      <c r="S284" s="4">
-        <v>9.52</v>
-      </c>
-      <c r="T284" s="4">
-        <v>122.75</v>
+      <c r="R284" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S284" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T284" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="U284" s="4">
         <v>2.9005000000000001</v>
       </c>
-      <c r="V284" s="4">
-        <v>8.0299999999999994</v>
+      <c r="V284" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="W284" s="4">
         <v>-82.167000000000002</v>
@@ -56354,7 +56387,7 @@
         <v>986.07</v>
       </c>
     </row>
-    <row r="293" spans="1:56">
+    <row r="293" spans="1:56" s="10" customFormat="1">
       <c r="A293" s="4" t="s">
         <v>332</v>
       </c>
@@ -56524,7 +56557,7 @@
         <v>57.17</v>
       </c>
     </row>
-    <row r="294" spans="1:56">
+    <row r="294" spans="1:56" s="10" customFormat="1">
       <c r="A294" s="4" t="s">
         <v>333</v>
       </c>
@@ -56694,7 +56727,7 @@
         <v>57.17</v>
       </c>
     </row>
-    <row r="295" spans="1:56">
+    <row r="295" spans="1:56" s="10" customFormat="1">
       <c r="A295" s="4" t="s">
         <v>334</v>
       </c>
@@ -56864,7 +56897,7 @@
         <v>60.01</v>
       </c>
     </row>
-    <row r="296" spans="1:56">
+    <row r="296" spans="1:56" s="10" customFormat="1">
       <c r="A296" s="4" t="s">
         <v>335</v>
       </c>
@@ -57034,7 +57067,7 @@
         <v>60.01</v>
       </c>
     </row>
-    <row r="297" spans="1:56">
+    <row r="297" spans="1:56" s="10" customFormat="1">
       <c r="A297" s="4" t="s">
         <v>336</v>
       </c>
@@ -57204,7 +57237,7 @@
         <v>807.64</v>
       </c>
     </row>
-    <row r="298" spans="1:56">
+    <row r="298" spans="1:56" s="10" customFormat="1">
       <c r="A298" s="4" t="s">
         <v>337</v>
       </c>
@@ -57374,7 +57407,7 @@
         <v>807.64</v>
       </c>
     </row>
-    <row r="299" spans="1:56">
+    <row r="299" spans="1:56" s="10" customFormat="1">
       <c r="A299" s="4" t="s">
         <v>338</v>
       </c>
@@ -57544,7 +57577,7 @@
         <v>923.07</v>
       </c>
     </row>
-    <row r="300" spans="1:56">
+    <row r="300" spans="1:56" s="10" customFormat="1">
       <c r="A300" s="4" t="s">
         <v>339</v>
       </c>
@@ -57714,7 +57747,7 @@
         <v>923.07</v>
       </c>
     </row>
-    <row r="301" spans="1:56">
+    <row r="301" spans="1:56" s="10" customFormat="1">
       <c r="A301" s="4" t="s">
         <v>340</v>
       </c>
@@ -57884,7 +57917,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:56">
+    <row r="302" spans="1:56" s="10" customFormat="1">
       <c r="A302" s="4" t="s">
         <v>341</v>
       </c>
@@ -58054,7 +58087,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:56">
+    <row r="303" spans="1:56" s="10" customFormat="1">
       <c r="A303" s="4" t="s">
         <v>342</v>
       </c>
@@ -58224,7 +58257,7 @@
         <v>18.82</v>
       </c>
     </row>
-    <row r="304" spans="1:56">
+    <row r="304" spans="1:56" s="10" customFormat="1">
       <c r="A304" s="4" t="s">
         <v>343</v>
       </c>
@@ -58394,7 +58427,7 @@
         <v>18.82</v>
       </c>
     </row>
-    <row r="305" spans="1:56">
+    <row r="305" spans="1:56" s="10" customFormat="1">
       <c r="A305" s="4" t="s">
         <v>344</v>
       </c>
@@ -58564,7 +58597,7 @@
         <v>77.69</v>
       </c>
     </row>
-    <row r="306" spans="1:56">
+    <row r="306" spans="1:56" s="10" customFormat="1">
       <c r="A306" s="4" t="s">
         <v>345</v>
       </c>
@@ -58734,7 +58767,7 @@
         <v>77.69</v>
       </c>
     </row>
-    <row r="307" spans="1:56">
+    <row r="307" spans="1:56" s="10" customFormat="1">
       <c r="A307" s="4" t="s">
         <v>346</v>
       </c>
@@ -58904,7 +58937,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="308" spans="1:56">
+    <row r="308" spans="1:56" s="10" customFormat="1">
       <c r="A308" s="4" t="s">
         <v>347</v>
       </c>
@@ -59074,7 +59107,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="309" spans="1:56">
+    <row r="309" spans="1:56" s="10" customFormat="1">
       <c r="A309" s="4" t="s">
         <v>348</v>
       </c>
@@ -59244,7 +59277,7 @@
         <v>41.59</v>
       </c>
     </row>
-    <row r="310" spans="1:56">
+    <row r="310" spans="1:56" s="10" customFormat="1">
       <c r="A310" s="4" t="s">
         <v>349</v>
       </c>
@@ -59414,7 +59447,7 @@
         <v>41.59</v>
       </c>
     </row>
-    <row r="311" spans="1:56">
+    <row r="311" spans="1:56" s="10" customFormat="1">
       <c r="A311" s="4" t="s">
         <v>350</v>
       </c>
@@ -59584,7 +59617,7 @@
         <v>67.38</v>
       </c>
     </row>
-    <row r="312" spans="1:56">
+    <row r="312" spans="1:56" s="10" customFormat="1">
       <c r="A312" s="4" t="s">
         <v>351</v>
       </c>
@@ -59754,7 +59787,7 @@
         <v>67.38</v>
       </c>
     </row>
-    <row r="313" spans="1:56">
+    <row r="313" spans="1:56" s="10" customFormat="1">
       <c r="A313" s="4" t="s">
         <v>352</v>
       </c>
@@ -59924,7 +59957,7 @@
         <v>77.87</v>
       </c>
     </row>
-    <row r="314" spans="1:56">
+    <row r="314" spans="1:56" s="10" customFormat="1">
       <c r="A314" s="4" t="s">
         <v>353</v>
       </c>
@@ -60094,7 +60127,7 @@
         <v>77.87</v>
       </c>
     </row>
-    <row r="315" spans="1:56">
+    <row r="315" spans="1:56" s="10" customFormat="1">
       <c r="A315" s="4" t="s">
         <v>354</v>
       </c>
@@ -60264,7 +60297,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="316" spans="1:56">
+    <row r="316" spans="1:56" s="10" customFormat="1">
       <c r="A316" s="4" t="s">
         <v>355</v>
       </c>
@@ -63154,7 +63187,7 @@
         <v>130.38999999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:56">
+    <row r="333" spans="1:56" s="10" customFormat="1">
       <c r="A333" s="4" t="s">
         <v>372</v>
       </c>
@@ -63324,7 +63357,7 @@
         <v>45.84</v>
       </c>
     </row>
-    <row r="334" spans="1:56">
+    <row r="334" spans="1:56" s="10" customFormat="1">
       <c r="A334" s="4" t="s">
         <v>373</v>
       </c>
@@ -63494,7 +63527,7 @@
         <v>45.84</v>
       </c>
     </row>
-    <row r="335" spans="1:56">
+    <row r="335" spans="1:56" s="10" customFormat="1">
       <c r="A335" s="4" t="s">
         <v>374</v>
       </c>
@@ -63664,7 +63697,7 @@
         <v>47.04</v>
       </c>
     </row>
-    <row r="336" spans="1:56">
+    <row r="336" spans="1:56" s="10" customFormat="1">
       <c r="A336" s="4" t="s">
         <v>375</v>
       </c>
@@ -63834,7 +63867,7 @@
         <v>47.04</v>
       </c>
     </row>
-    <row r="337" spans="1:56">
+    <row r="337" spans="1:56" s="10" customFormat="1">
       <c r="A337" s="4" t="s">
         <v>376</v>
       </c>
@@ -64004,7 +64037,7 @@
         <v>66.08</v>
       </c>
     </row>
-    <row r="338" spans="1:56">
+    <row r="338" spans="1:56" s="10" customFormat="1">
       <c r="A338" s="4" t="s">
         <v>377</v>
       </c>
@@ -64174,7 +64207,7 @@
         <v>66.08</v>
       </c>
     </row>
-    <row r="339" spans="1:56">
+    <row r="339" spans="1:56" s="10" customFormat="1">
       <c r="A339" s="4" t="s">
         <v>378</v>
       </c>
@@ -64344,7 +64377,7 @@
         <v>61.08</v>
       </c>
     </row>
-    <row r="340" spans="1:56">
+    <row r="340" spans="1:56" s="10" customFormat="1">
       <c r="A340" s="4" t="s">
         <v>379</v>
       </c>
@@ -64514,7 +64547,7 @@
         <v>61.08</v>
       </c>
     </row>
-    <row r="341" spans="1:56">
+    <row r="341" spans="1:56" s="10" customFormat="1">
       <c r="A341" s="4" t="s">
         <v>380</v>
       </c>
@@ -64684,7 +64717,7 @@
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="342" spans="1:56">
+    <row r="342" spans="1:56" s="10" customFormat="1">
       <c r="A342" s="4" t="s">
         <v>381</v>
       </c>
@@ -64854,7 +64887,7 @@
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:56">
+    <row r="343" spans="1:56" s="10" customFormat="1">
       <c r="A343" s="4" t="s">
         <v>382</v>
       </c>
@@ -65024,7 +65057,7 @@
         <v>9.19</v>
       </c>
     </row>
-    <row r="344" spans="1:56">
+    <row r="344" spans="1:56" s="10" customFormat="1">
       <c r="A344" s="4" t="s">
         <v>383</v>
       </c>
@@ -65194,7 +65227,7 @@
         <v>9.19</v>
       </c>
     </row>
-    <row r="345" spans="1:56">
+    <row r="345" spans="1:56" s="10" customFormat="1">
       <c r="A345" s="4" t="s">
         <v>384</v>
       </c>
@@ -65364,7 +65397,7 @@
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="346" spans="1:56">
+    <row r="346" spans="1:56" s="10" customFormat="1">
       <c r="A346" s="4" t="s">
         <v>385</v>
       </c>
@@ -65534,7 +65567,7 @@
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="347" spans="1:56">
+    <row r="347" spans="1:56" s="10" customFormat="1">
       <c r="A347" s="4" t="s">
         <v>386</v>
       </c>
@@ -65704,7 +65737,7 @@
         <v>9.83</v>
       </c>
     </row>
-    <row r="348" spans="1:56">
+    <row r="348" spans="1:56" s="10" customFormat="1">
       <c r="A348" s="4" t="s">
         <v>387</v>
       </c>

--- a/analysis/Verruco Metadata.xlsx
+++ b/analysis/Verruco Metadata.xlsx
@@ -1381,18 +1381,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3853,7 +3847,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3918,8 +3912,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6703,9 +6695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO294" sqref="AO294"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A189" sqref="A189:XFD189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6769,7 +6761,7 @@
       <c r="K1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="38" t="s">
         <v>390</v>
       </c>
       <c r="M1" s="19" t="s">
@@ -30847,7 +30839,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="177" spans="1:47" s="10" customFormat="1">
+    <row r="177" spans="1:45" s="10" customFormat="1">
       <c r="A177" s="7" t="s">
         <v>198</v>
       </c>
@@ -30984,7 +30976,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="178" spans="1:47" s="10" customFormat="1">
+    <row r="178" spans="1:45" s="10" customFormat="1">
       <c r="A178" s="7" t="s">
         <v>199</v>
       </c>
@@ -31121,7 +31113,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="179" spans="1:47" s="10" customFormat="1">
+    <row r="179" spans="1:45" s="10" customFormat="1">
       <c r="A179" s="7" t="s">
         <v>200</v>
       </c>
@@ -31258,7 +31250,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="180" spans="1:47" s="10" customFormat="1">
+    <row r="180" spans="1:45" s="10" customFormat="1">
       <c r="A180" s="7" t="s">
         <v>201</v>
       </c>
@@ -31395,7 +31387,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="181" spans="1:47" s="10" customFormat="1">
+    <row r="181" spans="1:45" s="10" customFormat="1">
       <c r="A181" s="7" t="s">
         <v>202</v>
       </c>
@@ -31532,7 +31524,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="182" spans="1:47" s="10" customFormat="1">
+    <row r="182" spans="1:45" s="10" customFormat="1">
       <c r="A182" s="7" t="s">
         <v>203</v>
       </c>
@@ -31669,7 +31661,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="183" spans="1:47" s="10" customFormat="1">
+    <row r="183" spans="1:45" s="10" customFormat="1">
       <c r="A183" s="7" t="s">
         <v>204</v>
       </c>
@@ -31806,7 +31798,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="184" spans="1:47" s="10" customFormat="1">
+    <row r="184" spans="1:45" s="10" customFormat="1">
       <c r="A184" s="7" t="s">
         <v>205</v>
       </c>
@@ -31943,7 +31935,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="185" spans="1:47" s="10" customFormat="1">
+    <row r="185" spans="1:45" s="10" customFormat="1">
       <c r="A185" s="7" t="s">
         <v>206</v>
       </c>
@@ -32080,7 +32072,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="186" spans="1:47" s="10" customFormat="1">
+    <row r="186" spans="1:45" s="10" customFormat="1">
       <c r="A186" s="7" t="s">
         <v>207</v>
       </c>
@@ -32217,7 +32209,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="187" spans="1:47" s="10" customFormat="1">
+    <row r="187" spans="1:45" s="10" customFormat="1">
       <c r="A187" s="7" t="s">
         <v>208</v>
       </c>
@@ -32354,7 +32346,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="188" spans="1:47" s="10" customFormat="1">
+    <row r="188" spans="1:45" s="10" customFormat="1">
       <c r="A188" s="7" t="s">
         <v>209</v>
       </c>
@@ -32491,11 +32483,11 @@
         <v>389</v>
       </c>
     </row>
-    <row r="189" spans="1:47" s="39" customFormat="1">
-      <c r="A189" s="38" t="s">
+    <row r="189" spans="1:45" s="10" customFormat="1">
+      <c r="A189" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B189" s="38" t="s">
+      <c r="B189" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C189" s="4" t="s">
@@ -32546,7 +32538,7 @@
       <c r="R189" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S189" s="41" t="s">
+      <c r="S189" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T189" s="10">
@@ -32627,10 +32619,8 @@
       <c r="AS189" s="2">
         <v>8.69</v>
       </c>
-      <c r="AT189" s="10"/>
-      <c r="AU189" s="10"/>
     </row>
-    <row r="190" spans="1:47">
+    <row r="190" spans="1:45">
       <c r="A190" s="4" t="s">
         <v>230</v>
       </c>
@@ -32685,7 +32675,7 @@
       <c r="R190" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S190" s="41" t="s">
+      <c r="S190" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T190" s="10">
@@ -32767,7 +32757,7 @@
         <v>8.69</v>
       </c>
     </row>
-    <row r="191" spans="1:47">
+    <row r="191" spans="1:45">
       <c r="A191" s="4" t="s">
         <v>231</v>
       </c>
@@ -32822,7 +32812,7 @@
       <c r="R191" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S191" s="41" t="s">
+      <c r="S191" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T191" s="10">
@@ -32904,7 +32894,7 @@
         <v>9.2200000000000006</v>
       </c>
     </row>
-    <row r="192" spans="1:47">
+    <row r="192" spans="1:45">
       <c r="A192" s="4" t="s">
         <v>388</v>
       </c>
@@ -32959,7 +32949,7 @@
       <c r="R192" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S192" s="41" t="s">
+      <c r="S192" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T192" s="10">
@@ -33096,7 +33086,7 @@
       <c r="R193" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S193" s="41" t="s">
+      <c r="S193" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T193" s="10">
@@ -33233,7 +33223,7 @@
       <c r="R194" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S194" s="41" t="s">
+      <c r="S194" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T194" s="10">
@@ -33370,7 +33360,7 @@
       <c r="R195" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S195" s="41" t="s">
+      <c r="S195" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T195" s="10">
@@ -33507,7 +33497,7 @@
       <c r="R196" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S196" s="41" t="s">
+      <c r="S196" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T196" s="10">
@@ -33644,7 +33634,7 @@
       <c r="R197" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S197" s="41" t="s">
+      <c r="S197" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T197" s="10">
@@ -33781,7 +33771,7 @@
       <c r="R198" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S198" s="41" t="s">
+      <c r="S198" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T198" s="10">
@@ -33918,7 +33908,7 @@
       <c r="R199" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S199" s="41" t="s">
+      <c r="S199" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T199" s="10">
@@ -34055,7 +34045,7 @@
       <c r="R200" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S200" s="41" t="s">
+      <c r="S200" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T200" s="10">
@@ -34192,7 +34182,7 @@
       <c r="R201" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S201" s="41" t="s">
+      <c r="S201" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T201" s="10">
@@ -34329,7 +34319,7 @@
       <c r="R202" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S202" s="41" t="s">
+      <c r="S202" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T202" s="10">
@@ -34466,7 +34456,7 @@
       <c r="R203" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S203" s="41" t="s">
+      <c r="S203" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T203" s="10">
@@ -34603,7 +34593,7 @@
       <c r="R204" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S204" s="41" t="s">
+      <c r="S204" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T204" s="10">
@@ -34740,7 +34730,7 @@
       <c r="R205" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S205" s="41" t="s">
+      <c r="S205" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T205" s="10">
@@ -34877,7 +34867,7 @@
       <c r="R206" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S206" s="41" t="s">
+      <c r="S206" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T206" s="10">
@@ -35014,7 +35004,7 @@
       <c r="R207" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S207" s="41" t="s">
+      <c r="S207" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T207" s="10">
@@ -35151,7 +35141,7 @@
       <c r="R208" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S208" s="41" t="s">
+      <c r="S208" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T208" s="10">
@@ -35288,7 +35278,7 @@
       <c r="R209" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S209" s="41" t="s">
+      <c r="S209" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T209" s="10">
@@ -35425,7 +35415,7 @@
       <c r="R210" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S210" s="41" t="s">
+      <c r="S210" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T210" s="10">
@@ -35562,7 +35552,7 @@
       <c r="R211" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S211" s="41" t="s">
+      <c r="S211" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T211" s="10">
@@ -35699,7 +35689,7 @@
       <c r="R212" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S212" s="41" t="s">
+      <c r="S212" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T212" s="10">
@@ -35836,7 +35826,7 @@
       <c r="R213" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S213" s="41" t="s">
+      <c r="S213" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T213" s="10">
@@ -35973,7 +35963,7 @@
       <c r="R214" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S214" s="41" t="s">
+      <c r="S214" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T214" s="10">
@@ -36110,7 +36100,7 @@
       <c r="R215" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S215" s="41" t="s">
+      <c r="S215" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T215" s="10">
@@ -36247,7 +36237,7 @@
       <c r="R216" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S216" s="41" t="s">
+      <c r="S216" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T216" s="10">
@@ -36384,7 +36374,7 @@
       <c r="R217" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S217" s="41" t="s">
+      <c r="S217" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T217" s="10">
@@ -36521,7 +36511,7 @@
       <c r="R218" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S218" s="41" t="s">
+      <c r="S218" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T218" s="10">
@@ -36658,7 +36648,7 @@
       <c r="R219" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S219" s="41" t="s">
+      <c r="S219" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T219" s="10">
@@ -36795,7 +36785,7 @@
       <c r="R220" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S220" s="41" t="s">
+      <c r="S220" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T220" s="10">
@@ -36932,7 +36922,7 @@
       <c r="R221" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S221" s="41" t="s">
+      <c r="S221" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T221" s="10">
@@ -37069,7 +37059,7 @@
       <c r="R222" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S222" s="41" t="s">
+      <c r="S222" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T222" s="10">
@@ -37206,7 +37196,7 @@
       <c r="R223" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S223" s="41" t="s">
+      <c r="S223" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T223" s="10">
@@ -37343,7 +37333,7 @@
       <c r="R224" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S224" s="41" t="s">
+      <c r="S224" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T224" s="10">
@@ -37480,7 +37470,7 @@
       <c r="R225" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S225" s="41" t="s">
+      <c r="S225" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T225" s="10">
@@ -37617,7 +37607,7 @@
       <c r="R226" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S226" s="41" t="s">
+      <c r="S226" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T226" s="10">
@@ -37754,7 +37744,7 @@
       <c r="R227" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S227" s="41" t="s">
+      <c r="S227" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T227" s="10">
@@ -37891,7 +37881,7 @@
       <c r="R228" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S228" s="41" t="s">
+      <c r="S228" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T228" s="10">
@@ -38028,7 +38018,7 @@
       <c r="R229" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S229" s="41" t="s">
+      <c r="S229" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T229" s="10">
@@ -38165,7 +38155,7 @@
       <c r="R230" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S230" s="41" t="s">
+      <c r="S230" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T230" s="10">
@@ -38302,7 +38292,7 @@
       <c r="R231" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S231" s="41" t="s">
+      <c r="S231" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T231" s="10">
@@ -38439,7 +38429,7 @@
       <c r="R232" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S232" s="41" t="s">
+      <c r="S232" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T232" s="10">
@@ -38576,7 +38566,7 @@
       <c r="R233" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S233" s="41" t="s">
+      <c r="S233" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T233" s="10">
@@ -38713,7 +38703,7 @@
       <c r="R234" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S234" s="41" t="s">
+      <c r="S234" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T234" s="10">
@@ -38850,7 +38840,7 @@
       <c r="R235" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S235" s="41" t="s">
+      <c r="S235" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T235" s="10">
@@ -38987,7 +38977,7 @@
       <c r="R236" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S236" s="41" t="s">
+      <c r="S236" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T236" s="10">
@@ -39124,7 +39114,7 @@
       <c r="R237" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S237" s="41" t="s">
+      <c r="S237" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T237" s="10">
@@ -39261,7 +39251,7 @@
       <c r="R238" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S238" s="41" t="s">
+      <c r="S238" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T238" s="10">
@@ -39398,7 +39388,7 @@
       <c r="R239" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S239" s="41" t="s">
+      <c r="S239" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T239" s="10">
@@ -39535,7 +39525,7 @@
       <c r="R240" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S240" s="41" t="s">
+      <c r="S240" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T240" s="10">
@@ -39672,7 +39662,7 @@
       <c r="R241" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S241" s="41" t="s">
+      <c r="S241" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T241" s="10">
@@ -39809,7 +39799,7 @@
       <c r="R242" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S242" s="41" t="s">
+      <c r="S242" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T242" s="10">
@@ -39946,7 +39936,7 @@
       <c r="R243" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S243" s="41" t="s">
+      <c r="S243" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T243" s="10">
@@ -40083,7 +40073,7 @@
       <c r="R244" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S244" s="41" t="s">
+      <c r="S244" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T244" s="10">
@@ -40220,7 +40210,7 @@
       <c r="R245" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S245" s="41" t="s">
+      <c r="S245" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T245" s="10">
@@ -40357,7 +40347,7 @@
       <c r="R246" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S246" s="41" t="s">
+      <c r="S246" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T246" s="10">
@@ -40494,7 +40484,7 @@
       <c r="R247" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S247" s="41" t="s">
+      <c r="S247" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T247" s="10">
@@ -40631,7 +40621,7 @@
       <c r="R248" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S248" s="41" t="s">
+      <c r="S248" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T248" s="10">
@@ -40768,7 +40758,7 @@
       <c r="R249" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S249" s="41" t="s">
+      <c r="S249" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T249" s="10">
@@ -40905,7 +40895,7 @@
       <c r="R250" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S250" s="41" t="s">
+      <c r="S250" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T250" s="10">
@@ -41042,7 +41032,7 @@
       <c r="R251" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S251" s="41" t="s">
+      <c r="S251" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T251" s="10">
@@ -41179,7 +41169,7 @@
       <c r="R252" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S252" s="41" t="s">
+      <c r="S252" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T252" s="10">
@@ -41316,7 +41306,7 @@
       <c r="R253" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S253" s="41" t="s">
+      <c r="S253" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T253" s="10">
@@ -41453,7 +41443,7 @@
       <c r="R254" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S254" s="41" t="s">
+      <c r="S254" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T254" s="10">
@@ -41590,7 +41580,7 @@
       <c r="R255" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S255" s="41" t="s">
+      <c r="S255" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T255" s="10">
@@ -41727,7 +41717,7 @@
       <c r="R256" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S256" s="41" t="s">
+      <c r="S256" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T256" s="10">
@@ -41864,7 +41854,7 @@
       <c r="R257" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S257" s="41" t="s">
+      <c r="S257" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T257" s="10">
@@ -42001,7 +41991,7 @@
       <c r="R258" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S258" s="41" t="s">
+      <c r="S258" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T258" s="10">
@@ -42138,7 +42128,7 @@
       <c r="R259" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S259" s="41" t="s">
+      <c r="S259" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T259" s="10">
@@ -42275,7 +42265,7 @@
       <c r="R260" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S260" s="41" t="s">
+      <c r="S260" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T260" s="10">
@@ -42412,7 +42402,7 @@
       <c r="R261" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S261" s="41" t="s">
+      <c r="S261" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T261" s="10">
@@ -42549,7 +42539,7 @@
       <c r="R262" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S262" s="41" t="s">
+      <c r="S262" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T262" s="10">
@@ -42686,7 +42676,7 @@
       <c r="R263" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S263" s="41" t="s">
+      <c r="S263" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T263" s="10">
@@ -42823,7 +42813,7 @@
       <c r="R264" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S264" s="41" t="s">
+      <c r="S264" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T264" s="10">
@@ -42960,7 +42950,7 @@
       <c r="R265" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S265" s="41" t="s">
+      <c r="S265" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T265" s="10">
@@ -43097,7 +43087,7 @@
       <c r="R266" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S266" s="41" t="s">
+      <c r="S266" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T266" s="10">
@@ -43234,7 +43224,7 @@
       <c r="R267" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S267" s="41" t="s">
+      <c r="S267" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T267" s="10">
@@ -43371,7 +43361,7 @@
       <c r="R268" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S268" s="41" t="s">
+      <c r="S268" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T268" s="10">
@@ -43508,7 +43498,7 @@
       <c r="R269" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S269" s="41" t="s">
+      <c r="S269" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T269" s="10">
@@ -43645,7 +43635,7 @@
       <c r="R270" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S270" s="41" t="s">
+      <c r="S270" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T270" s="10">
@@ -43782,7 +43772,7 @@
       <c r="R271" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S271" s="41" t="s">
+      <c r="S271" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T271" s="10">
@@ -43919,7 +43909,7 @@
       <c r="R272" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S272" s="41" t="s">
+      <c r="S272" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T272" s="10">
@@ -44056,7 +44046,7 @@
       <c r="R273" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S273" s="41" t="s">
+      <c r="S273" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T273" s="10">
@@ -44193,7 +44183,7 @@
       <c r="R274" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S274" s="41" t="s">
+      <c r="S274" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T274" s="10">
@@ -44330,7 +44320,7 @@
       <c r="R275" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S275" s="41" t="s">
+      <c r="S275" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T275" s="10">
@@ -44467,7 +44457,7 @@
       <c r="R276" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S276" s="41" t="s">
+      <c r="S276" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T276" s="10">
@@ -44604,7 +44594,7 @@
       <c r="R277" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S277" s="41" t="s">
+      <c r="S277" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T277" s="10">
@@ -44741,7 +44731,7 @@
       <c r="R278" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S278" s="41" t="s">
+      <c r="S278" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T278" s="10">
@@ -44878,7 +44868,7 @@
       <c r="R279" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S279" s="41" t="s">
+      <c r="S279" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T279" s="10">
@@ -45015,7 +45005,7 @@
       <c r="R280" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S280" s="41" t="s">
+      <c r="S280" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T280" s="10">
@@ -45152,7 +45142,7 @@
       <c r="R281" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S281" s="41" t="s">
+      <c r="S281" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T281" s="10">
@@ -45289,7 +45279,7 @@
       <c r="R282" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S282" s="41" t="s">
+      <c r="S282" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T282" s="10">
@@ -45426,7 +45416,7 @@
       <c r="R283" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S283" s="41" t="s">
+      <c r="S283" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T283" s="10">
@@ -45563,7 +45553,7 @@
       <c r="R284" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="S284" s="41" t="s">
+      <c r="S284" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T284" s="10">

--- a/analysis/Verruco Metadata.xlsx
+++ b/analysis/Verruco Metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1227,9 +1227,6 @@
     <t>Alk mg/L</t>
   </si>
   <si>
-    <t>DO %</t>
-  </si>
-  <si>
     <t>Turb NTU</t>
   </si>
   <si>
@@ -1260,9 +1257,6 @@
     <t>DO Probe (mg/L)</t>
   </si>
   <si>
-    <t>DO Lab mg/L</t>
-  </si>
-  <si>
     <t>Chl Lab (ug/L)</t>
   </si>
   <si>
@@ -1291,6 +1285,12 @@
   </si>
   <si>
     <t>NH4 ug/L</t>
+  </si>
+  <si>
+    <t>DO probe %</t>
+  </si>
+  <si>
+    <t>DO probe mg/L</t>
   </si>
 </sst>
 </file>
@@ -6693,11 +6693,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU361"/>
+  <dimension ref="A1:AW361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A189" sqref="A189:XFD189"/>
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A188" sqref="A188:XFD188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6724,7 +6724,7 @@
     <col min="20" max="20" width="18.83203125" style="4" customWidth="1"/>
     <col min="21" max="41" width="10.83203125" style="4"/>
     <col min="42" max="42" width="10.83203125" style="27"/>
-    <col min="43" max="47" width="10.83203125" style="10"/>
+    <col min="43" max="49" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="11" customFormat="1" ht="30">
@@ -6774,7 +6774,7 @@
         <v>394</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q1" s="19" t="s">
         <v>391</v>
@@ -6783,13 +6783,13 @@
         <v>395</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="V1" s="22" t="s">
         <v>396</v>
@@ -6807,61 +6807,61 @@
         <v>400</v>
       </c>
       <c r="AA1" s="22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AB1" s="22" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AC1" s="22" t="s">
         <v>401</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="AE1" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF1" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="AF1" s="21" t="s">
-        <v>403</v>
-      </c>
       <c r="AG1" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="AH1" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="AI1" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="AJ1" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="AK1" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="AL1" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="AM1" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="AN1" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="AO1" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="AP1" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AR1" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="AI1" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="AJ1" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="AK1" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="AL1" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="AM1" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="AN1" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="AO1" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="AP1" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="AQ1" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
         <v>421</v>
-      </c>
-      <c r="AS1" s="11" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:45" s="3" customFormat="1">
